--- a/BackTest/2020-01-13 BackTest MTL.xlsx
+++ b/BackTest/2020-01-13 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M319"/>
+  <dimension ref="A1:M320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>244.5</v>
       </c>
       <c r="F2" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="G2" t="n">
-        <v>246.1683333333334</v>
+        <v>246.2333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>246.4</v>
+        <v>244.5</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4</v>
+        <v>244.5</v>
       </c>
       <c r="D3" t="n">
-        <v>246.4</v>
+        <v>244.5</v>
       </c>
       <c r="E3" t="n">
-        <v>246.4</v>
+        <v>244.5</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2500</v>
       </c>
       <c r="G3" t="n">
-        <v>246.1350000000001</v>
+        <v>246.1683333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>244.1</v>
+        <v>246.4</v>
       </c>
       <c r="C4" t="n">
-        <v>245.8</v>
+        <v>246.4</v>
       </c>
       <c r="D4" t="n">
-        <v>245.8</v>
+        <v>246.4</v>
       </c>
       <c r="E4" t="n">
-        <v>244</v>
+        <v>246.4</v>
       </c>
       <c r="F4" t="n">
-        <v>805.8202</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>246.1033333333334</v>
+        <v>246.1350000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>246</v>
+        <v>244.1</v>
       </c>
       <c r="C5" t="n">
-        <v>246</v>
+        <v>245.8</v>
       </c>
       <c r="D5" t="n">
-        <v>246</v>
+        <v>245.8</v>
       </c>
       <c r="E5" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" t="n">
-        <v>2165.1738</v>
+        <v>805.8202</v>
       </c>
       <c r="G5" t="n">
-        <v>246.075</v>
+        <v>246.1033333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>245.9</v>
+        <v>246</v>
       </c>
       <c r="C6" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D6" t="n">
-        <v>245.9</v>
+        <v>246</v>
       </c>
       <c r="E6" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F6" t="n">
-        <v>1318.2837</v>
+        <v>2165.1738</v>
       </c>
       <c r="G6" t="n">
-        <v>246.03</v>
+        <v>246.075</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>244.9</v>
+        <v>245.9</v>
       </c>
       <c r="C7" t="n">
-        <v>244.9</v>
+        <v>245</v>
       </c>
       <c r="D7" t="n">
-        <v>244.9</v>
+        <v>245.9</v>
       </c>
       <c r="E7" t="n">
-        <v>244.9</v>
+        <v>245</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>1318.2837</v>
       </c>
       <c r="G7" t="n">
-        <v>245.9883333333333</v>
+        <v>246.03</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>244.9</v>
       </c>
       <c r="F8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>245.9466666666667</v>
+        <v>245.9883333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>200</v>
       </c>
       <c r="G9" t="n">
-        <v>245.905</v>
+        <v>245.9466666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>244.9</v>
       </c>
       <c r="F10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G10" t="n">
-        <v>245.8783333333334</v>
+        <v>245.905</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>244.9</v>
       </c>
       <c r="C11" t="n">
-        <v>245</v>
+        <v>244.9</v>
       </c>
       <c r="D11" t="n">
-        <v>245</v>
+        <v>244.9</v>
       </c>
       <c r="E11" t="n">
         <v>244.9</v>
       </c>
       <c r="F11" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G11" t="n">
-        <v>245.8533333333334</v>
+        <v>245.8783333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="C12" t="n">
         <v>245</v>
-      </c>
-      <c r="C12" t="n">
-        <v>244.9</v>
       </c>
       <c r="D12" t="n">
         <v>245</v>
@@ -795,10 +795,10 @@
         <v>244.9</v>
       </c>
       <c r="F12" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G12" t="n">
-        <v>245.7966666666667</v>
+        <v>245.8533333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>245</v>
       </c>
       <c r="C13" t="n">
-        <v>245</v>
+        <v>244.9</v>
       </c>
       <c r="D13" t="n">
         <v>245</v>
       </c>
       <c r="E13" t="n">
-        <v>245</v>
+        <v>244.9</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G13" t="n">
-        <v>245.7433333333333</v>
+        <v>245.7966666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>245.1</v>
+        <v>245</v>
       </c>
       <c r="C14" t="n">
         <v>245</v>
       </c>
       <c r="D14" t="n">
-        <v>245.1</v>
+        <v>245</v>
       </c>
       <c r="E14" t="n">
         <v>245</v>
       </c>
       <c r="F14" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>245.6916666666667</v>
+        <v>245.7433333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245</v>
+        <v>245.1</v>
       </c>
       <c r="C15" t="n">
         <v>245</v>
       </c>
       <c r="D15" t="n">
-        <v>245</v>
+        <v>245.1</v>
       </c>
       <c r="E15" t="n">
         <v>245</v>
@@ -903,7 +903,7 @@
         <v>400</v>
       </c>
       <c r="G15" t="n">
-        <v>245.6633333333333</v>
+        <v>245.6916666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>245</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G16" t="n">
-        <v>245.6416666666667</v>
+        <v>245.6633333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>245</v>
       </c>
       <c r="F17" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>245.6216666666666</v>
+        <v>245.6416666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>245</v>
       </c>
       <c r="E18" t="n">
-        <v>244.1</v>
+        <v>245</v>
       </c>
       <c r="F18" t="n">
-        <v>157</v>
+        <v>700</v>
       </c>
       <c r="G18" t="n">
-        <v>245.5766666666667</v>
+        <v>245.6216666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>245</v>
       </c>
       <c r="E19" t="n">
-        <v>244</v>
+        <v>244.1</v>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="G19" t="n">
-        <v>245.525</v>
+        <v>245.5766666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>245</v>
       </c>
       <c r="C20" t="n">
-        <v>244.1</v>
+        <v>245</v>
       </c>
       <c r="D20" t="n">
         <v>245</v>
       </c>
       <c r="E20" t="n">
-        <v>244.1</v>
+        <v>244</v>
       </c>
       <c r="F20" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4583333333333</v>
+        <v>245.525</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>245.6</v>
+        <v>245</v>
       </c>
       <c r="C21" t="n">
-        <v>245.6</v>
+        <v>244.1</v>
       </c>
       <c r="D21" t="n">
-        <v>245.6</v>
+        <v>245</v>
       </c>
       <c r="E21" t="n">
-        <v>245.6</v>
+        <v>244.1</v>
       </c>
       <c r="F21" t="n">
-        <v>39.2166</v>
+        <v>280</v>
       </c>
       <c r="G21" t="n">
-        <v>245.4166666666666</v>
+        <v>245.4583333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>245.5</v>
+        <v>245.6</v>
       </c>
       <c r="C22" t="n">
-        <v>244.2</v>
+        <v>245.6</v>
       </c>
       <c r="D22" t="n">
-        <v>245.5</v>
+        <v>245.6</v>
       </c>
       <c r="E22" t="n">
-        <v>244.2</v>
+        <v>245.6</v>
       </c>
       <c r="F22" t="n">
-        <v>4610.9387</v>
+        <v>39.2166</v>
       </c>
       <c r="G22" t="n">
-        <v>245.3516666666666</v>
+        <v>245.4166666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>245</v>
+        <v>245.5</v>
       </c>
       <c r="C23" t="n">
-        <v>245</v>
+        <v>244.2</v>
       </c>
       <c r="D23" t="n">
-        <v>245</v>
+        <v>245.5</v>
       </c>
       <c r="E23" t="n">
-        <v>245</v>
+        <v>244.2</v>
       </c>
       <c r="F23" t="n">
-        <v>490.9435</v>
+        <v>4610.9387</v>
       </c>
       <c r="G23" t="n">
-        <v>245.3283333333333</v>
+        <v>245.3516666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>245</v>
       </c>
       <c r="F24" t="n">
-        <v>1177</v>
+        <v>490.9435</v>
       </c>
       <c r="G24" t="n">
-        <v>245.3066666666667</v>
+        <v>245.3283333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>245</v>
       </c>
       <c r="F25" t="n">
-        <v>508</v>
+        <v>1177</v>
       </c>
       <c r="G25" t="n">
-        <v>245.285</v>
+        <v>245.3066666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>245.1</v>
+        <v>245</v>
       </c>
       <c r="C26" t="n">
         <v>245</v>
       </c>
       <c r="D26" t="n">
-        <v>245.1</v>
+        <v>245</v>
       </c>
       <c r="E26" t="n">
         <v>245</v>
       </c>
       <c r="F26" t="n">
-        <v>1100</v>
+        <v>508</v>
       </c>
       <c r="G26" t="n">
-        <v>245.2633333333333</v>
+        <v>245.285</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>245</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="G27" t="n">
-        <v>245.2433333333333</v>
+        <v>245.2633333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>245.8</v>
+        <v>245.1</v>
       </c>
       <c r="C28" t="n">
-        <v>244.5</v>
+        <v>245</v>
       </c>
       <c r="D28" t="n">
-        <v>245.8</v>
+        <v>245.1</v>
       </c>
       <c r="E28" t="n">
-        <v>244.5</v>
+        <v>245</v>
       </c>
       <c r="F28" t="n">
-        <v>204.5</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>245.22</v>
+        <v>245.2433333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>245.8</v>
+      </c>
+      <c r="C29" t="n">
         <v>244.5</v>
       </c>
-      <c r="C29" t="n">
-        <v>244.8</v>
-      </c>
       <c r="D29" t="n">
-        <v>244.8</v>
+        <v>245.8</v>
       </c>
       <c r="E29" t="n">
         <v>244.5</v>
       </c>
       <c r="F29" t="n">
-        <v>2415.3919</v>
+        <v>204.5</v>
       </c>
       <c r="G29" t="n">
-        <v>245.2016666666667</v>
+        <v>245.22</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="C30" t="n">
         <v>244.8</v>
-      </c>
-      <c r="C30" t="n">
-        <v>244.6</v>
       </c>
       <c r="D30" t="n">
         <v>244.8</v>
       </c>
       <c r="E30" t="n">
-        <v>244.6</v>
+        <v>244.5</v>
       </c>
       <c r="F30" t="n">
-        <v>300</v>
+        <v>2415.3919</v>
       </c>
       <c r="G30" t="n">
-        <v>245.1866666666667</v>
+        <v>245.2016666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>244.6</v>
+        <v>244.8</v>
       </c>
       <c r="C31" t="n">
         <v>244.6</v>
       </c>
       <c r="D31" t="n">
-        <v>244.6</v>
+        <v>244.8</v>
       </c>
       <c r="E31" t="n">
         <v>244.6</v>
       </c>
       <c r="F31" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="G31" t="n">
-        <v>245.1816666666667</v>
+        <v>245.1866666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>244.6</v>
       </c>
       <c r="F32" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G32" t="n">
-        <v>245.1766666666667</v>
+        <v>245.1816666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>244.6</v>
       </c>
       <c r="C33" t="n">
-        <v>244.5</v>
+        <v>244.6</v>
       </c>
       <c r="D33" t="n">
-        <v>244.7</v>
+        <v>244.6</v>
       </c>
       <c r="E33" t="n">
-        <v>244.5</v>
+        <v>244.6</v>
       </c>
       <c r="F33" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G33" t="n">
-        <v>245.1833333333334</v>
+        <v>245.1766666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>244.5</v>
+        <v>244.6</v>
       </c>
       <c r="C34" t="n">
         <v>244.5</v>
       </c>
       <c r="D34" t="n">
-        <v>244.5</v>
+        <v>244.7</v>
       </c>
       <c r="E34" t="n">
         <v>244.5</v>
       </c>
       <c r="F34" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G34" t="n">
-        <v>245.19</v>
+        <v>245.1833333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>244.5</v>
       </c>
       <c r="F35" t="n">
-        <v>255</v>
+        <v>1000</v>
       </c>
       <c r="G35" t="n">
-        <v>245.1783333333333</v>
+        <v>245.19</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>244.5</v>
       </c>
       <c r="F36" t="n">
-        <v>1465</v>
+        <v>255</v>
       </c>
       <c r="G36" t="n">
-        <v>245.1366666666667</v>
+        <v>245.1783333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>244.5</v>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>1465</v>
       </c>
       <c r="G37" t="n">
-        <v>245.095</v>
+        <v>245.1366666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>244.5</v>
       </c>
       <c r="C38" t="n">
-        <v>244.4</v>
+        <v>244.5</v>
       </c>
       <c r="D38" t="n">
         <v>244.5</v>
       </c>
       <c r="E38" t="n">
-        <v>244.4</v>
+        <v>244.5</v>
       </c>
       <c r="F38" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G38" t="n">
-        <v>245.0566666666667</v>
+        <v>245.095</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="C39" t="n">
         <v>244.4</v>
       </c>
-      <c r="C39" t="n">
-        <v>243.6</v>
-      </c>
       <c r="D39" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="E39" t="n">
         <v>244.4</v>
       </c>
-      <c r="E39" t="n">
-        <v>243.6</v>
-      </c>
       <c r="F39" t="n">
-        <v>15886.6397</v>
+        <v>400</v>
       </c>
       <c r="G39" t="n">
-        <v>245</v>
+        <v>245.0566666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>243.7</v>
+        <v>244.4</v>
       </c>
       <c r="C40" t="n">
         <v>243.6</v>
       </c>
       <c r="D40" t="n">
-        <v>243.7</v>
+        <v>244.4</v>
       </c>
       <c r="E40" t="n">
         <v>243.6</v>
       </c>
       <c r="F40" t="n">
-        <v>482</v>
+        <v>15886.6397</v>
       </c>
       <c r="G40" t="n">
-        <v>244.9416666666667</v>
+        <v>245</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>245.3</v>
+        <v>243.7</v>
       </c>
       <c r="C41" t="n">
-        <v>245.3</v>
+        <v>243.6</v>
       </c>
       <c r="D41" t="n">
-        <v>245.3</v>
+        <v>243.7</v>
       </c>
       <c r="E41" t="n">
-        <v>245.3</v>
+        <v>243.6</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>482</v>
       </c>
       <c r="G41" t="n">
-        <v>244.9266666666666</v>
+        <v>244.9416666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>243.6</v>
+        <v>245.3</v>
       </c>
       <c r="C42" t="n">
-        <v>243.6</v>
+        <v>245.3</v>
       </c>
       <c r="D42" t="n">
-        <v>243.6</v>
+        <v>245.3</v>
       </c>
       <c r="E42" t="n">
-        <v>243.6</v>
+        <v>245.3</v>
       </c>
       <c r="F42" t="n">
-        <v>121.4574</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>244.9016666666666</v>
+        <v>244.9266666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>243.6</v>
       </c>
       <c r="C43" t="n">
-        <v>243</v>
+        <v>243.6</v>
       </c>
       <c r="D43" t="n">
         <v>243.6</v>
       </c>
       <c r="E43" t="n">
-        <v>243</v>
+        <v>243.6</v>
       </c>
       <c r="F43" t="n">
-        <v>13965.6327</v>
+        <v>121.4574</v>
       </c>
       <c r="G43" t="n">
-        <v>244.8666666666666</v>
+        <v>244.9016666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>243.6</v>
       </c>
       <c r="C44" t="n">
-        <v>243.6</v>
+        <v>243</v>
       </c>
       <c r="D44" t="n">
         <v>243.6</v>
       </c>
       <c r="E44" t="n">
-        <v>243.6</v>
+        <v>243</v>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>13965.6327</v>
       </c>
       <c r="G44" t="n">
-        <v>244.8266666666667</v>
+        <v>244.8666666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>243.6</v>
       </c>
       <c r="F45" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="n">
-        <v>244.8016666666666</v>
+        <v>244.8266666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>243.6</v>
       </c>
       <c r="F46" t="n">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7766666666666</v>
+        <v>244.8016666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>243.6</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>411</v>
       </c>
       <c r="G47" t="n">
-        <v>244.7533333333333</v>
+        <v>244.7766666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>243.6</v>
       </c>
       <c r="C48" t="n">
-        <v>243.2</v>
+        <v>243.6</v>
       </c>
       <c r="D48" t="n">
         <v>243.6</v>
       </c>
       <c r="E48" t="n">
-        <v>243.2</v>
+        <v>243.6</v>
       </c>
       <c r="F48" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>244.7233333333333</v>
+        <v>244.7533333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>243.2</v>
+        <v>243.6</v>
       </c>
       <c r="C49" t="n">
         <v>243.2</v>
       </c>
       <c r="D49" t="n">
-        <v>243.2</v>
+        <v>243.6</v>
       </c>
       <c r="E49" t="n">
         <v>243.2</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G49" t="n">
-        <v>244.6933333333333</v>
+        <v>244.7233333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>243.2</v>
       </c>
       <c r="F50" t="n">
-        <v>205.4431</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>244.6633333333334</v>
+        <v>244.6933333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>243.2</v>
       </c>
       <c r="F51" t="n">
-        <v>70.3875</v>
+        <v>205.4431</v>
       </c>
       <c r="G51" t="n">
-        <v>244.6333333333334</v>
+        <v>244.6633333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>243.2</v>
       </c>
       <c r="C52" t="n">
-        <v>243</v>
+        <v>243.2</v>
       </c>
       <c r="D52" t="n">
         <v>243.2</v>
       </c>
       <c r="E52" t="n">
-        <v>243</v>
+        <v>243.2</v>
       </c>
       <c r="F52" t="n">
-        <v>800</v>
+        <v>70.3875</v>
       </c>
       <c r="G52" t="n">
-        <v>244.6</v>
+        <v>244.6333333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>243.4</v>
+        <v>243.2</v>
       </c>
       <c r="C53" t="n">
-        <v>243.4</v>
+        <v>243</v>
       </c>
       <c r="D53" t="n">
-        <v>243.4</v>
+        <v>243.2</v>
       </c>
       <c r="E53" t="n">
-        <v>243.4</v>
+        <v>243</v>
       </c>
       <c r="F53" t="n">
-        <v>4402.623</v>
+        <v>800</v>
       </c>
       <c r="G53" t="n">
-        <v>244.5733333333334</v>
+        <v>244.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,35 +2253,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>243</v>
+        <v>243.4</v>
       </c>
       <c r="C54" t="n">
-        <v>243</v>
+        <v>243.4</v>
       </c>
       <c r="D54" t="n">
-        <v>243</v>
+        <v>243.4</v>
       </c>
       <c r="E54" t="n">
-        <v>243</v>
+        <v>243.4</v>
       </c>
       <c r="F54" t="n">
-        <v>2909.838</v>
+        <v>4402.623</v>
       </c>
       <c r="G54" t="n">
-        <v>244.54</v>
+        <v>244.5733333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>243.4</v>
-      </c>
-      <c r="K54" t="n">
-        <v>243.4</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
@@ -2304,28 +2300,20 @@
         <v>243</v>
       </c>
       <c r="F55" t="n">
-        <v>2328</v>
+        <v>2909.838</v>
       </c>
       <c r="G55" t="n">
-        <v>244.5066666666667</v>
+        <v>244.54</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>243</v>
-      </c>
-      <c r="K55" t="n">
-        <v>243.4</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2347,28 +2335,20 @@
         <v>243</v>
       </c>
       <c r="F56" t="n">
-        <v>2777</v>
+        <v>2328</v>
       </c>
       <c r="G56" t="n">
-        <v>244.4733333333334</v>
+        <v>244.5066666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>243</v>
-      </c>
-      <c r="K56" t="n">
-        <v>243.4</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2390,10 +2370,10 @@
         <v>243</v>
       </c>
       <c r="F57" t="n">
-        <v>1400</v>
+        <v>2777</v>
       </c>
       <c r="G57" t="n">
-        <v>244.4383333333334</v>
+        <v>244.4733333333334</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -2417,22 +2397,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>243.6</v>
+        <v>243</v>
       </c>
       <c r="C58" t="n">
         <v>243</v>
       </c>
       <c r="D58" t="n">
-        <v>246.2</v>
+        <v>243</v>
       </c>
       <c r="E58" t="n">
         <v>243</v>
       </c>
       <c r="F58" t="n">
-        <v>3034.4253</v>
+        <v>1400</v>
       </c>
       <c r="G58" t="n">
-        <v>244.4033333333333</v>
+        <v>244.4383333333334</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2448,7 +2428,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2460,38 +2440,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>243</v>
+        <v>243.6</v>
       </c>
       <c r="C59" t="n">
         <v>243</v>
       </c>
       <c r="D59" t="n">
-        <v>243</v>
+        <v>246.2</v>
       </c>
       <c r="E59" t="n">
         <v>243</v>
       </c>
       <c r="F59" t="n">
-        <v>900</v>
+        <v>3034.4253</v>
       </c>
       <c r="G59" t="n">
-        <v>244.3783333333334</v>
+        <v>244.4033333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>243</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>243</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -2515,10 +2493,10 @@
         <v>243</v>
       </c>
       <c r="F60" t="n">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="G60" t="n">
-        <v>244.3216666666667</v>
+        <v>244.3783333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2547,19 +2525,19 @@
         <v>243</v>
       </c>
       <c r="C61" t="n">
-        <v>244.9</v>
+        <v>243</v>
       </c>
       <c r="D61" t="n">
-        <v>244.9</v>
+        <v>243</v>
       </c>
       <c r="E61" t="n">
         <v>243</v>
       </c>
       <c r="F61" t="n">
-        <v>2134.1884</v>
+        <v>2400</v>
       </c>
       <c r="G61" t="n">
-        <v>244.3283333333333</v>
+        <v>244.3216666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2585,10 +2563,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="C62" t="n">
-        <v>243</v>
+        <v>244.9</v>
       </c>
       <c r="D62" t="n">
         <v>244.9</v>
@@ -2597,10 +2575,10 @@
         <v>243</v>
       </c>
       <c r="F62" t="n">
-        <v>7697.4175</v>
+        <v>2134.1884</v>
       </c>
       <c r="G62" t="n">
-        <v>244.3033333333333</v>
+        <v>244.3283333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2626,22 +2604,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="C63" t="n">
         <v>243</v>
       </c>
       <c r="D63" t="n">
-        <v>243</v>
+        <v>244.9</v>
       </c>
       <c r="E63" t="n">
         <v>243</v>
       </c>
       <c r="F63" t="n">
-        <v>1217</v>
+        <v>7697.4175</v>
       </c>
       <c r="G63" t="n">
-        <v>244.2466666666667</v>
+        <v>244.3033333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2667,22 +2645,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="C64" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="D64" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="E64" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="F64" t="n">
-        <v>1004.12</v>
+        <v>1217</v>
       </c>
       <c r="G64" t="n">
-        <v>244.2016666666667</v>
+        <v>244.2466666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2720,10 +2698,10 @@
         <v>243.1</v>
       </c>
       <c r="F65" t="n">
-        <v>1530</v>
+        <v>1004.12</v>
       </c>
       <c r="G65" t="n">
-        <v>244.1533333333334</v>
+        <v>244.2016666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2752,19 +2730,19 @@
         <v>243.1</v>
       </c>
       <c r="C66" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="D66" t="n">
         <v>243.1</v>
       </c>
       <c r="E66" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="F66" t="n">
-        <v>595</v>
+        <v>1530</v>
       </c>
       <c r="G66" t="n">
-        <v>244.12</v>
+        <v>244.1533333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2790,19 +2768,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>244.9</v>
+        <v>243.1</v>
       </c>
       <c r="C67" t="n">
-        <v>244.9</v>
+        <v>243</v>
       </c>
       <c r="D67" t="n">
-        <v>244.9</v>
+        <v>243.1</v>
       </c>
       <c r="E67" t="n">
-        <v>244.9</v>
+        <v>243</v>
       </c>
       <c r="F67" t="n">
-        <v>2.85</v>
+        <v>595</v>
       </c>
       <c r="G67" t="n">
         <v>244.12</v>
@@ -2831,22 +2809,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>243</v>
+        <v>244.9</v>
       </c>
       <c r="C68" t="n">
-        <v>243</v>
+        <v>244.9</v>
       </c>
       <c r="D68" t="n">
-        <v>243</v>
+        <v>244.9</v>
       </c>
       <c r="E68" t="n">
-        <v>243</v>
+        <v>244.9</v>
       </c>
       <c r="F68" t="n">
-        <v>1355</v>
+        <v>2.85</v>
       </c>
       <c r="G68" t="n">
-        <v>244.0883333333334</v>
+        <v>244.12</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2878,16 +2856,16 @@
         <v>243</v>
       </c>
       <c r="D69" t="n">
-        <v>243.3</v>
+        <v>243</v>
       </c>
       <c r="E69" t="n">
         <v>243</v>
       </c>
       <c r="F69" t="n">
-        <v>1404.5</v>
+        <v>1355</v>
       </c>
       <c r="G69" t="n">
-        <v>244.0566666666667</v>
+        <v>244.0883333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2919,16 +2897,16 @@
         <v>243</v>
       </c>
       <c r="D70" t="n">
-        <v>243</v>
+        <v>243.3</v>
       </c>
       <c r="E70" t="n">
         <v>243</v>
       </c>
       <c r="F70" t="n">
-        <v>1900</v>
+        <v>1404.5</v>
       </c>
       <c r="G70" t="n">
-        <v>244.0250000000001</v>
+        <v>244.0566666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2966,10 +2944,10 @@
         <v>243</v>
       </c>
       <c r="F71" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="G71" t="n">
-        <v>243.9916666666667</v>
+        <v>244.0250000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3007,10 +2985,10 @@
         <v>243</v>
       </c>
       <c r="F72" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G72" t="n">
-        <v>243.9600000000001</v>
+        <v>243.9916666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3036,22 +3014,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>243.3</v>
+        <v>243</v>
       </c>
       <c r="C73" t="n">
-        <v>243.3</v>
+        <v>243</v>
       </c>
       <c r="D73" t="n">
-        <v>243.3</v>
+        <v>243</v>
       </c>
       <c r="E73" t="n">
-        <v>243.3</v>
+        <v>243</v>
       </c>
       <c r="F73" t="n">
-        <v>583.2886999999999</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="n">
-        <v>243.9316666666667</v>
+        <v>243.9600000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3089,10 +3067,10 @@
         <v>243.3</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>583.2886999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>243.9033333333334</v>
+        <v>243.9316666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3130,10 +3108,10 @@
         <v>243.3</v>
       </c>
       <c r="F75" t="n">
-        <v>765</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>243.875</v>
+        <v>243.9033333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3171,10 +3149,10 @@
         <v>243.3</v>
       </c>
       <c r="F76" t="n">
-        <v>1347</v>
+        <v>765</v>
       </c>
       <c r="G76" t="n">
-        <v>243.8466666666667</v>
+        <v>243.875</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3212,10 +3190,10 @@
         <v>243.3</v>
       </c>
       <c r="F77" t="n">
-        <v>255</v>
+        <v>1347</v>
       </c>
       <c r="G77" t="n">
-        <v>243.8183333333333</v>
+        <v>243.8466666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3241,22 +3219,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>244.8</v>
+        <v>243.3</v>
       </c>
       <c r="C78" t="n">
-        <v>244.8</v>
+        <v>243.3</v>
       </c>
       <c r="D78" t="n">
-        <v>244.8</v>
+        <v>243.3</v>
       </c>
       <c r="E78" t="n">
-        <v>244.8</v>
+        <v>243.3</v>
       </c>
       <c r="F78" t="n">
-        <v>4.5</v>
+        <v>255</v>
       </c>
       <c r="G78" t="n">
-        <v>243.815</v>
+        <v>243.8183333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3282,22 +3260,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>243.4</v>
+        <v>244.8</v>
       </c>
       <c r="C79" t="n">
-        <v>243.1</v>
+        <v>244.8</v>
       </c>
       <c r="D79" t="n">
-        <v>243.4</v>
+        <v>244.8</v>
       </c>
       <c r="E79" t="n">
-        <v>243.1</v>
+        <v>244.8</v>
       </c>
       <c r="F79" t="n">
-        <v>8021.8932</v>
+        <v>4.5</v>
       </c>
       <c r="G79" t="n">
-        <v>243.7833333333333</v>
+        <v>243.815</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3323,22 +3301,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>243.4</v>
+      </c>
+      <c r="C80" t="n">
         <v>243.1</v>
       </c>
-      <c r="C80" t="n">
-        <v>244</v>
-      </c>
       <c r="D80" t="n">
-        <v>244.8</v>
+        <v>243.4</v>
       </c>
       <c r="E80" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="F80" t="n">
-        <v>8139.1214</v>
+        <v>8021.8932</v>
       </c>
       <c r="G80" t="n">
-        <v>243.7816666666667</v>
+        <v>243.7833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3364,22 +3342,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="C81" t="n">
         <v>244</v>
       </c>
-      <c r="C81" t="n">
-        <v>243</v>
-      </c>
       <c r="D81" t="n">
-        <v>244</v>
+        <v>244.8</v>
       </c>
       <c r="E81" t="n">
         <v>243</v>
       </c>
       <c r="F81" t="n">
-        <v>6390.62</v>
+        <v>8139.1214</v>
       </c>
       <c r="G81" t="n">
-        <v>243.7383333333333</v>
+        <v>243.7816666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3405,22 +3383,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C82" t="n">
         <v>243</v>
       </c>
       <c r="D82" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E82" t="n">
         <v>243</v>
       </c>
       <c r="F82" t="n">
-        <v>1500</v>
+        <v>6390.62</v>
       </c>
       <c r="G82" t="n">
-        <v>243.7183333333333</v>
+        <v>243.7383333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3446,22 +3424,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>244.8</v>
+        <v>243</v>
       </c>
       <c r="C83" t="n">
-        <v>244.8</v>
+        <v>243</v>
       </c>
       <c r="D83" t="n">
-        <v>244.8</v>
+        <v>243</v>
       </c>
       <c r="E83" t="n">
-        <v>244.8</v>
+        <v>243</v>
       </c>
       <c r="F83" t="n">
-        <v>2.1</v>
+        <v>1500</v>
       </c>
       <c r="G83" t="n">
-        <v>243.715</v>
+        <v>243.7183333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3487,22 +3465,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>243</v>
+        <v>244.8</v>
       </c>
       <c r="C84" t="n">
-        <v>243</v>
+        <v>244.8</v>
       </c>
       <c r="D84" t="n">
-        <v>243</v>
+        <v>244.8</v>
       </c>
       <c r="E84" t="n">
-        <v>243</v>
+        <v>244.8</v>
       </c>
       <c r="F84" t="n">
-        <v>484</v>
+        <v>2.1</v>
       </c>
       <c r="G84" t="n">
-        <v>243.6816666666666</v>
+        <v>243.715</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3528,22 +3506,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="C85" t="n">
         <v>243</v>
       </c>
       <c r="D85" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="E85" t="n">
         <v>243</v>
       </c>
       <c r="F85" t="n">
-        <v>6941.1229</v>
+        <v>484</v>
       </c>
       <c r="G85" t="n">
-        <v>243.6483333333333</v>
+        <v>243.6816666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3569,22 +3547,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="C86" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="D86" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="E86" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="F86" t="n">
-        <v>3842</v>
+        <v>6941.1229</v>
       </c>
       <c r="G86" t="n">
-        <v>243.6133333333333</v>
+        <v>243.6483333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3610,10 +3588,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>243</v>
+      </c>
+      <c r="C87" t="n">
         <v>242.9</v>
-      </c>
-      <c r="C87" t="n">
-        <v>243</v>
       </c>
       <c r="D87" t="n">
         <v>243</v>
@@ -3622,10 +3600,10 @@
         <v>242.9</v>
       </c>
       <c r="F87" t="n">
-        <v>7142.46</v>
+        <v>3842</v>
       </c>
       <c r="G87" t="n">
-        <v>243.58</v>
+        <v>243.6133333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3651,22 +3629,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>243</v>
+        <v>242.9</v>
       </c>
       <c r="C88" t="n">
-        <v>242.4</v>
+        <v>243</v>
       </c>
       <c r="D88" t="n">
         <v>243</v>
       </c>
       <c r="E88" t="n">
-        <v>242.3</v>
+        <v>242.9</v>
       </c>
       <c r="F88" t="n">
-        <v>7288.85</v>
+        <v>7142.46</v>
       </c>
       <c r="G88" t="n">
-        <v>243.545</v>
+        <v>243.58</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3692,22 +3670,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>242.4</v>
+        <v>243</v>
       </c>
       <c r="C89" t="n">
         <v>242.4</v>
       </c>
       <c r="D89" t="n">
-        <v>242.4</v>
+        <v>243</v>
       </c>
       <c r="E89" t="n">
-        <v>242.4</v>
+        <v>242.3</v>
       </c>
       <c r="F89" t="n">
-        <v>775</v>
+        <v>7288.85</v>
       </c>
       <c r="G89" t="n">
-        <v>243.505</v>
+        <v>243.545</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3745,10 +3723,10 @@
         <v>242.4</v>
       </c>
       <c r="F90" t="n">
-        <v>1600</v>
+        <v>775</v>
       </c>
       <c r="G90" t="n">
-        <v>243.4683333333333</v>
+        <v>243.505</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3777,19 +3755,19 @@
         <v>242.4</v>
       </c>
       <c r="C91" t="n">
-        <v>243</v>
+        <v>242.4</v>
       </c>
       <c r="D91" t="n">
-        <v>243</v>
+        <v>242.4</v>
       </c>
       <c r="E91" t="n">
         <v>242.4</v>
       </c>
       <c r="F91" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="G91" t="n">
-        <v>243.4416666666666</v>
+        <v>243.4683333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3815,10 +3793,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>243</v>
+        <v>242.4</v>
       </c>
       <c r="C92" t="n">
-        <v>242.4</v>
+        <v>243</v>
       </c>
       <c r="D92" t="n">
         <v>243</v>
@@ -3827,10 +3805,10 @@
         <v>242.4</v>
       </c>
       <c r="F92" t="n">
-        <v>8667.5074</v>
+        <v>3400</v>
       </c>
       <c r="G92" t="n">
-        <v>243.4049999999999</v>
+        <v>243.4416666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3856,22 +3834,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>243</v>
+      </c>
+      <c r="C93" t="n">
         <v>242.4</v>
       </c>
-      <c r="C93" t="n">
-        <v>242.9</v>
-      </c>
       <c r="D93" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="E93" t="n">
         <v>242.4</v>
       </c>
       <c r="F93" t="n">
-        <v>2475.2559</v>
+        <v>8667.5074</v>
       </c>
       <c r="G93" t="n">
-        <v>243.3783333333332</v>
+        <v>243.4049999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3897,22 +3875,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>242.9</v>
+        <v>242.4</v>
       </c>
       <c r="C94" t="n">
         <v>242.9</v>
       </c>
       <c r="D94" t="n">
-        <v>244.8</v>
+        <v>242.9</v>
       </c>
       <c r="E94" t="n">
-        <v>242.9</v>
+        <v>242.4</v>
       </c>
       <c r="F94" t="n">
-        <v>20539</v>
+        <v>2475.2559</v>
       </c>
       <c r="G94" t="n">
-        <v>243.3516666666666</v>
+        <v>243.3783333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3938,22 +3916,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>243.9</v>
+        <v>242.9</v>
       </c>
       <c r="C95" t="n">
-        <v>243.8</v>
+        <v>242.9</v>
       </c>
       <c r="D95" t="n">
-        <v>244</v>
+        <v>244.8</v>
       </c>
       <c r="E95" t="n">
         <v>242.9</v>
       </c>
       <c r="F95" t="n">
-        <v>5029</v>
+        <v>20539</v>
       </c>
       <c r="G95" t="n">
-        <v>243.3399999999999</v>
+        <v>243.3516666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3979,22 +3957,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>243.8</v>
+        <v>243.9</v>
       </c>
       <c r="C96" t="n">
         <v>243.8</v>
       </c>
       <c r="D96" t="n">
-        <v>243.8</v>
+        <v>244</v>
       </c>
       <c r="E96" t="n">
-        <v>243.8</v>
+        <v>242.9</v>
       </c>
       <c r="F96" t="n">
-        <v>5837</v>
+        <v>5029</v>
       </c>
       <c r="G96" t="n">
-        <v>243.3283333333332</v>
+        <v>243.3399999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4032,10 +4010,10 @@
         <v>243.8</v>
       </c>
       <c r="F97" t="n">
-        <v>471</v>
+        <v>5837</v>
       </c>
       <c r="G97" t="n">
-        <v>243.3166666666665</v>
+        <v>243.3283333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4061,22 +4039,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>243.9</v>
+        <v>243.8</v>
       </c>
       <c r="C98" t="n">
-        <v>243.9</v>
+        <v>243.8</v>
       </c>
       <c r="D98" t="n">
-        <v>243.9</v>
+        <v>243.8</v>
       </c>
       <c r="E98" t="n">
-        <v>243.9</v>
+        <v>243.8</v>
       </c>
       <c r="F98" t="n">
-        <v>551.74</v>
+        <v>471</v>
       </c>
       <c r="G98" t="n">
-        <v>243.3083333333332</v>
+        <v>243.3166666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4105,19 +4083,19 @@
         <v>243.9</v>
       </c>
       <c r="C99" t="n">
-        <v>243.8</v>
+        <v>243.9</v>
       </c>
       <c r="D99" t="n">
-        <v>245.7</v>
+        <v>243.9</v>
       </c>
       <c r="E99" t="n">
-        <v>243.8</v>
+        <v>243.9</v>
       </c>
       <c r="F99" t="n">
-        <v>3102.1</v>
+        <v>551.74</v>
       </c>
       <c r="G99" t="n">
-        <v>243.3116666666665</v>
+        <v>243.3083333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4143,22 +4121,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>243.8</v>
+        <v>243.9</v>
       </c>
       <c r="C100" t="n">
         <v>243.8</v>
       </c>
       <c r="D100" t="n">
-        <v>243.8</v>
+        <v>245.7</v>
       </c>
       <c r="E100" t="n">
         <v>243.8</v>
       </c>
       <c r="F100" t="n">
-        <v>3300</v>
+        <v>3102.1</v>
       </c>
       <c r="G100" t="n">
-        <v>243.3149999999999</v>
+        <v>243.3116666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4187,19 +4165,19 @@
         <v>243.8</v>
       </c>
       <c r="C101" t="n">
-        <v>243.7</v>
+        <v>243.8</v>
       </c>
       <c r="D101" t="n">
-        <v>245.7</v>
+        <v>243.8</v>
       </c>
       <c r="E101" t="n">
-        <v>243.7</v>
+        <v>243.8</v>
       </c>
       <c r="F101" t="n">
-        <v>8622.6659</v>
+        <v>3300</v>
       </c>
       <c r="G101" t="n">
-        <v>243.2883333333332</v>
+        <v>243.3149999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4225,22 +4203,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>243.7</v>
+        <v>243.8</v>
       </c>
       <c r="C102" t="n">
         <v>243.7</v>
       </c>
       <c r="D102" t="n">
-        <v>243.7</v>
+        <v>245.7</v>
       </c>
       <c r="E102" t="n">
         <v>243.7</v>
       </c>
       <c r="F102" t="n">
-        <v>2488</v>
+        <v>8622.6659</v>
       </c>
       <c r="G102" t="n">
-        <v>243.2899999999999</v>
+        <v>243.2883333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4266,19 +4244,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>244</v>
+        <v>243.7</v>
       </c>
       <c r="C103" t="n">
-        <v>243</v>
+        <v>243.7</v>
       </c>
       <c r="D103" t="n">
-        <v>244</v>
+        <v>243.7</v>
       </c>
       <c r="E103" t="n">
-        <v>243</v>
+        <v>243.7</v>
       </c>
       <c r="F103" t="n">
-        <v>1048</v>
+        <v>2488</v>
       </c>
       <c r="G103" t="n">
         <v>243.2899999999999</v>
@@ -4307,22 +4285,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C104" t="n">
         <v>243</v>
       </c>
       <c r="D104" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E104" t="n">
         <v>243</v>
       </c>
       <c r="F104" t="n">
-        <v>353</v>
+        <v>1048</v>
       </c>
       <c r="G104" t="n">
-        <v>243.2799999999999</v>
+        <v>243.2899999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4360,10 +4338,10 @@
         <v>243</v>
       </c>
       <c r="F105" t="n">
-        <v>510</v>
+        <v>353</v>
       </c>
       <c r="G105" t="n">
-        <v>243.2699999999999</v>
+        <v>243.2799999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4392,19 +4370,19 @@
         <v>243</v>
       </c>
       <c r="C106" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="D106" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="E106" t="n">
         <v>243</v>
       </c>
       <c r="F106" t="n">
-        <v>272</v>
+        <v>510</v>
       </c>
       <c r="G106" t="n">
-        <v>243.2616666666665</v>
+        <v>243.2699999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4430,7 +4408,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="C107" t="n">
         <v>243.1</v>
@@ -4439,13 +4417,13 @@
         <v>243.1</v>
       </c>
       <c r="E107" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="F107" t="n">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G107" t="n">
-        <v>243.2533333333332</v>
+        <v>243.2616666666665</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4474,19 +4452,19 @@
         <v>243.1</v>
       </c>
       <c r="C108" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="D108" t="n">
-        <v>244.8</v>
+        <v>243.1</v>
       </c>
       <c r="E108" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="F108" t="n">
-        <v>2907.26</v>
+        <v>286</v>
       </c>
       <c r="G108" t="n">
-        <v>243.2499999999999</v>
+        <v>243.2533333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4512,22 +4490,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="C109" t="n">
         <v>243</v>
       </c>
       <c r="D109" t="n">
-        <v>243.1</v>
+        <v>244.8</v>
       </c>
       <c r="E109" t="n">
         <v>243</v>
       </c>
       <c r="F109" t="n">
-        <v>2300</v>
+        <v>2907.26</v>
       </c>
       <c r="G109" t="n">
-        <v>243.2466666666665</v>
+        <v>243.2499999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4553,22 +4531,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="C110" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="D110" t="n">
         <v>243.1</v>
       </c>
       <c r="E110" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="F110" t="n">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="G110" t="n">
-        <v>243.2449999999998</v>
+        <v>243.2466666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4594,22 +4572,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>244.7</v>
+        <v>243.1</v>
       </c>
       <c r="C111" t="n">
-        <v>244.7</v>
+        <v>243.1</v>
       </c>
       <c r="D111" t="n">
-        <v>244.7</v>
+        <v>243.1</v>
       </c>
       <c r="E111" t="n">
-        <v>244.7</v>
+        <v>243.1</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>1100</v>
       </c>
       <c r="G111" t="n">
-        <v>243.2699999999998</v>
+        <v>243.2449999999998</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4635,22 +4613,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>243.2</v>
+        <v>244.7</v>
       </c>
       <c r="C112" t="n">
-        <v>243.2</v>
+        <v>244.7</v>
       </c>
       <c r="D112" t="n">
-        <v>243.2</v>
+        <v>244.7</v>
       </c>
       <c r="E112" t="n">
-        <v>243.2</v>
+        <v>244.7</v>
       </c>
       <c r="F112" t="n">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>243.2733333333332</v>
+        <v>243.2699999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4688,10 +4666,10 @@
         <v>243.2</v>
       </c>
       <c r="F113" t="n">
-        <v>621.2516000000001</v>
+        <v>400</v>
       </c>
       <c r="G113" t="n">
-        <v>243.2699999999999</v>
+        <v>243.2733333333332</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4720,19 +4698,19 @@
         <v>243.2</v>
       </c>
       <c r="C114" t="n">
-        <v>243.1</v>
+        <v>243.2</v>
       </c>
       <c r="D114" t="n">
         <v>243.2</v>
       </c>
       <c r="E114" t="n">
-        <v>243.1</v>
+        <v>243.2</v>
       </c>
       <c r="F114" t="n">
-        <v>4811.4246</v>
+        <v>621.2516000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>243.2716666666665</v>
+        <v>243.2699999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4758,22 +4736,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>243.1</v>
+        <v>243.2</v>
       </c>
       <c r="C115" t="n">
         <v>243.1</v>
       </c>
       <c r="D115" t="n">
-        <v>243.1</v>
+        <v>243.2</v>
       </c>
       <c r="E115" t="n">
         <v>243.1</v>
       </c>
       <c r="F115" t="n">
-        <v>1275</v>
+        <v>4811.4246</v>
       </c>
       <c r="G115" t="n">
-        <v>243.2733333333332</v>
+        <v>243.2716666666665</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4811,10 +4789,10 @@
         <v>243.1</v>
       </c>
       <c r="F116" t="n">
-        <v>510</v>
+        <v>1275</v>
       </c>
       <c r="G116" t="n">
-        <v>243.2749999999999</v>
+        <v>243.2733333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4852,10 +4830,10 @@
         <v>243.1</v>
       </c>
       <c r="F117" t="n">
-        <v>1350</v>
+        <v>510</v>
       </c>
       <c r="G117" t="n">
-        <v>243.2766666666666</v>
+        <v>243.2749999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4893,10 +4871,10 @@
         <v>243.1</v>
       </c>
       <c r="F118" t="n">
-        <v>510</v>
+        <v>1350</v>
       </c>
       <c r="G118" t="n">
-        <v>243.2783333333332</v>
+        <v>243.2766666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4922,22 +4900,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>243.2</v>
+        <v>243.1</v>
       </c>
       <c r="C119" t="n">
-        <v>243.2</v>
+        <v>243.1</v>
       </c>
       <c r="D119" t="n">
-        <v>243.2</v>
+        <v>243.1</v>
       </c>
       <c r="E119" t="n">
-        <v>243.2</v>
+        <v>243.1</v>
       </c>
       <c r="F119" t="n">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="G119" t="n">
-        <v>243.2816666666666</v>
+        <v>243.2783333333332</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4975,10 +4953,10 @@
         <v>243.2</v>
       </c>
       <c r="F120" t="n">
-        <v>695</v>
+        <v>459</v>
       </c>
       <c r="G120" t="n">
-        <v>243.2849999999999</v>
+        <v>243.2816666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5016,10 +4994,10 @@
         <v>243.2</v>
       </c>
       <c r="F121" t="n">
-        <v>3000</v>
+        <v>695</v>
       </c>
       <c r="G121" t="n">
-        <v>243.2566666666666</v>
+        <v>243.2849999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5057,10 +5035,10 @@
         <v>243.2</v>
       </c>
       <c r="F122" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="G122" t="n">
-        <v>243.2599999999999</v>
+        <v>243.2566666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5089,19 +5067,19 @@
         <v>243.2</v>
       </c>
       <c r="C123" t="n">
-        <v>244.7</v>
+        <v>243.2</v>
       </c>
       <c r="D123" t="n">
-        <v>244.7</v>
+        <v>243.2</v>
       </c>
       <c r="E123" t="n">
         <v>243.2</v>
       </c>
       <c r="F123" t="n">
-        <v>4422.5</v>
+        <v>1400</v>
       </c>
       <c r="G123" t="n">
-        <v>243.2883333333333</v>
+        <v>243.2599999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5130,16 +5108,16 @@
         <v>243.2</v>
       </c>
       <c r="C124" t="n">
-        <v>243.1</v>
+        <v>244.7</v>
       </c>
       <c r="D124" t="n">
+        <v>244.7</v>
+      </c>
+      <c r="E124" t="n">
         <v>243.2</v>
       </c>
-      <c r="E124" t="n">
-        <v>243.1</v>
-      </c>
       <c r="F124" t="n">
-        <v>1400</v>
+        <v>4422.5</v>
       </c>
       <c r="G124" t="n">
         <v>243.2883333333333</v>
@@ -5171,19 +5149,19 @@
         <v>243.2</v>
       </c>
       <c r="C125" t="n">
-        <v>243.2</v>
+        <v>243.1</v>
       </c>
       <c r="D125" t="n">
         <v>243.2</v>
       </c>
       <c r="E125" t="n">
-        <v>243.2</v>
+        <v>243.1</v>
       </c>
       <c r="F125" t="n">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="G125" t="n">
-        <v>243.29</v>
+        <v>243.2883333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5224,7 +5202,7 @@
         <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>243.2933333333333</v>
+        <v>243.29</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5250,22 +5228,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>244.7</v>
+        <v>243.2</v>
       </c>
       <c r="C127" t="n">
-        <v>244.2</v>
+        <v>243.2</v>
       </c>
       <c r="D127" t="n">
-        <v>244.7</v>
+        <v>243.2</v>
       </c>
       <c r="E127" t="n">
-        <v>244.2</v>
+        <v>243.2</v>
       </c>
       <c r="F127" t="n">
-        <v>914.1035000000001</v>
+        <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>243.2816666666667</v>
+        <v>243.2933333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5291,22 +5269,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>244.2</v>
+        <v>244.7</v>
       </c>
       <c r="C128" t="n">
         <v>244.2</v>
       </c>
       <c r="D128" t="n">
-        <v>244.2</v>
+        <v>244.7</v>
       </c>
       <c r="E128" t="n">
         <v>244.2</v>
       </c>
       <c r="F128" t="n">
-        <v>599</v>
+        <v>914.1035000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>243.3016666666667</v>
+        <v>243.2816666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5344,10 +5322,10 @@
         <v>244.2</v>
       </c>
       <c r="F129" t="n">
-        <v>2922.78</v>
+        <v>599</v>
       </c>
       <c r="G129" t="n">
-        <v>243.3216666666667</v>
+        <v>243.3016666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5385,10 +5363,10 @@
         <v>244.2</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5391</v>
+        <v>2922.78</v>
       </c>
       <c r="G130" t="n">
-        <v>243.3416666666667</v>
+        <v>243.3216666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5414,22 +5392,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>243.3</v>
+        <v>244.2</v>
       </c>
       <c r="C131" t="n">
-        <v>243.3</v>
+        <v>244.2</v>
       </c>
       <c r="D131" t="n">
-        <v>243.3</v>
+        <v>244.2</v>
       </c>
       <c r="E131" t="n">
-        <v>243.3</v>
+        <v>244.2</v>
       </c>
       <c r="F131" t="n">
-        <v>700</v>
+        <v>0.5391</v>
       </c>
       <c r="G131" t="n">
-        <v>243.3466666666667</v>
+        <v>243.3416666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5467,10 +5445,10 @@
         <v>243.3</v>
       </c>
       <c r="F132" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G132" t="n">
-        <v>243.3516666666667</v>
+        <v>243.3466666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5496,22 +5474,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>244.7</v>
+        <v>243.3</v>
       </c>
       <c r="C133" t="n">
-        <v>244.7</v>
+        <v>243.3</v>
       </c>
       <c r="D133" t="n">
-        <v>244.7</v>
+        <v>243.3</v>
       </c>
       <c r="E133" t="n">
-        <v>244.7</v>
+        <v>243.3</v>
       </c>
       <c r="F133" t="n">
-        <v>4.5</v>
+        <v>200</v>
       </c>
       <c r="G133" t="n">
-        <v>243.375</v>
+        <v>243.3516666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5537,19 +5515,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>243.3</v>
+        <v>244.7</v>
       </c>
       <c r="C134" t="n">
-        <v>243.3</v>
+        <v>244.7</v>
       </c>
       <c r="D134" t="n">
-        <v>243.3</v>
+        <v>244.7</v>
       </c>
       <c r="E134" t="n">
-        <v>243.3</v>
+        <v>244.7</v>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>4.5</v>
       </c>
       <c r="G134" t="n">
         <v>243.375</v>
@@ -5578,22 +5556,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>243.5</v>
+        <v>243.3</v>
       </c>
       <c r="C135" t="n">
-        <v>243.4</v>
+        <v>243.3</v>
       </c>
       <c r="D135" t="n">
-        <v>243.5</v>
+        <v>243.3</v>
       </c>
       <c r="E135" t="n">
-        <v>243.4</v>
+        <v>243.3</v>
       </c>
       <c r="F135" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G135" t="n">
-        <v>243.3766666666667</v>
+        <v>243.375</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5619,22 +5597,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>243.4</v>
+        <v>243.5</v>
       </c>
       <c r="C136" t="n">
         <v>243.4</v>
       </c>
       <c r="D136" t="n">
-        <v>243.4</v>
+        <v>243.5</v>
       </c>
       <c r="E136" t="n">
         <v>243.4</v>
       </c>
       <c r="F136" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G136" t="n">
-        <v>243.3783333333334</v>
+        <v>243.3766666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5660,22 +5638,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>244</v>
+        <v>243.4</v>
       </c>
       <c r="C137" t="n">
-        <v>244.3</v>
+        <v>243.4</v>
       </c>
       <c r="D137" t="n">
-        <v>244.3</v>
+        <v>243.4</v>
       </c>
       <c r="E137" t="n">
-        <v>244</v>
+        <v>243.4</v>
       </c>
       <c r="F137" t="n">
-        <v>10639.9984</v>
+        <v>400</v>
       </c>
       <c r="G137" t="n">
-        <v>243.395</v>
+        <v>243.3783333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5701,10 +5679,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>244</v>
+      </c>
+      <c r="C138" t="n">
         <v>244.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>244</v>
       </c>
       <c r="D138" t="n">
         <v>244.3</v>
@@ -5713,10 +5691,10 @@
         <v>244</v>
       </c>
       <c r="F138" t="n">
-        <v>2710</v>
+        <v>10639.9984</v>
       </c>
       <c r="G138" t="n">
-        <v>243.3816666666667</v>
+        <v>243.395</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5742,22 +5720,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>244</v>
+        <v>244.3</v>
       </c>
       <c r="C139" t="n">
         <v>244</v>
       </c>
       <c r="D139" t="n">
-        <v>244.1</v>
+        <v>244.3</v>
       </c>
       <c r="E139" t="n">
         <v>244</v>
       </c>
       <c r="F139" t="n">
-        <v>600</v>
+        <v>2710</v>
       </c>
       <c r="G139" t="n">
-        <v>243.3966666666667</v>
+        <v>243.3816666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5783,22 +5761,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>244.7</v>
+        <v>244</v>
       </c>
       <c r="C140" t="n">
-        <v>244.7</v>
+        <v>244</v>
       </c>
       <c r="D140" t="n">
-        <v>244.7</v>
+        <v>244.1</v>
       </c>
       <c r="E140" t="n">
-        <v>244.7</v>
+        <v>244</v>
       </c>
       <c r="F140" t="n">
-        <v>4.5</v>
+        <v>600</v>
       </c>
       <c r="G140" t="n">
-        <v>243.4083333333334</v>
+        <v>243.3966666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5824,22 +5802,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>244.1</v>
+        <v>244.7</v>
       </c>
       <c r="C141" t="n">
-        <v>244.1</v>
+        <v>244.7</v>
       </c>
       <c r="D141" t="n">
-        <v>244.1</v>
+        <v>244.7</v>
       </c>
       <c r="E141" t="n">
-        <v>244.1</v>
+        <v>244.7</v>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>4.5</v>
       </c>
       <c r="G141" t="n">
-        <v>243.4266666666667</v>
+        <v>243.4083333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5868,19 +5846,19 @@
         <v>244.1</v>
       </c>
       <c r="C142" t="n">
-        <v>244</v>
+        <v>244.1</v>
       </c>
       <c r="D142" t="n">
         <v>244.1</v>
       </c>
       <c r="E142" t="n">
-        <v>244</v>
+        <v>244.1</v>
       </c>
       <c r="F142" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G142" t="n">
-        <v>243.4433333333334</v>
+        <v>243.4266666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5906,22 +5884,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>244</v>
+        <v>244.1</v>
       </c>
       <c r="C143" t="n">
         <v>244</v>
       </c>
       <c r="D143" t="n">
-        <v>244</v>
+        <v>244.1</v>
       </c>
       <c r="E143" t="n">
         <v>244</v>
       </c>
       <c r="F143" t="n">
-        <v>1410</v>
+        <v>900</v>
       </c>
       <c r="G143" t="n">
-        <v>243.4300000000001</v>
+        <v>243.4433333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5959,10 +5937,10 @@
         <v>244</v>
       </c>
       <c r="F144" t="n">
-        <v>7025.5632</v>
+        <v>1410</v>
       </c>
       <c r="G144" t="n">
-        <v>243.4466666666667</v>
+        <v>243.4300000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5991,19 +5969,19 @@
         <v>244</v>
       </c>
       <c r="C145" t="n">
-        <v>243.4</v>
+        <v>244</v>
       </c>
       <c r="D145" t="n">
         <v>244</v>
       </c>
       <c r="E145" t="n">
-        <v>243.4</v>
+        <v>244</v>
       </c>
       <c r="F145" t="n">
-        <v>4213.4214</v>
+        <v>7025.5632</v>
       </c>
       <c r="G145" t="n">
-        <v>243.4533333333334</v>
+        <v>243.4466666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6029,22 +6007,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>243.4</v>
+        <v>244</v>
       </c>
       <c r="C146" t="n">
         <v>243.4</v>
       </c>
       <c r="D146" t="n">
-        <v>243.4</v>
+        <v>244</v>
       </c>
       <c r="E146" t="n">
         <v>243.4</v>
       </c>
       <c r="F146" t="n">
-        <v>1227.1954</v>
+        <v>4213.4214</v>
       </c>
       <c r="G146" t="n">
-        <v>243.4616666666667</v>
+        <v>243.4533333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6082,10 +6060,10 @@
         <v>243.4</v>
       </c>
       <c r="F147" t="n">
-        <v>1155</v>
+        <v>1227.1954</v>
       </c>
       <c r="G147" t="n">
-        <v>243.4683333333334</v>
+        <v>243.4616666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6123,10 +6101,10 @@
         <v>243.4</v>
       </c>
       <c r="F148" t="n">
-        <v>2801</v>
+        <v>1155</v>
       </c>
       <c r="G148" t="n">
-        <v>243.4850000000001</v>
+        <v>243.4683333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6164,10 +6142,10 @@
         <v>243.4</v>
       </c>
       <c r="F149" t="n">
-        <v>1900</v>
+        <v>2801</v>
       </c>
       <c r="G149" t="n">
-        <v>243.5016666666667</v>
+        <v>243.4850000000001</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6205,10 +6183,10 @@
         <v>243.4</v>
       </c>
       <c r="F150" t="n">
-        <v>1555</v>
+        <v>1900</v>
       </c>
       <c r="G150" t="n">
-        <v>243.5183333333334</v>
+        <v>243.5016666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6246,10 +6224,10 @@
         <v>243.4</v>
       </c>
       <c r="F151" t="n">
-        <v>2036</v>
+        <v>1555</v>
       </c>
       <c r="G151" t="n">
-        <v>243.5250000000001</v>
+        <v>243.5183333333334</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6281,16 +6259,16 @@
         <v>243.4</v>
       </c>
       <c r="D152" t="n">
-        <v>244.7</v>
+        <v>243.4</v>
       </c>
       <c r="E152" t="n">
         <v>243.4</v>
       </c>
       <c r="F152" t="n">
-        <v>1869.5</v>
+        <v>2036</v>
       </c>
       <c r="G152" t="n">
-        <v>243.5416666666667</v>
+        <v>243.5250000000001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6319,19 +6297,19 @@
         <v>243.4</v>
       </c>
       <c r="C153" t="n">
-        <v>243.2</v>
+        <v>243.4</v>
       </c>
       <c r="D153" t="n">
+        <v>244.7</v>
+      </c>
+      <c r="E153" t="n">
         <v>243.4</v>
       </c>
-      <c r="E153" t="n">
-        <v>243.2</v>
-      </c>
       <c r="F153" t="n">
-        <v>2749.5798</v>
+        <v>1869.5</v>
       </c>
       <c r="G153" t="n">
-        <v>243.5466666666667</v>
+        <v>243.5416666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6357,22 +6335,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>243.2</v>
+        <v>243.4</v>
       </c>
       <c r="C154" t="n">
         <v>243.2</v>
       </c>
       <c r="D154" t="n">
-        <v>243.2</v>
+        <v>243.4</v>
       </c>
       <c r="E154" t="n">
         <v>243.2</v>
       </c>
       <c r="F154" t="n">
-        <v>1711.9285</v>
+        <v>2749.5798</v>
       </c>
       <c r="G154" t="n">
-        <v>243.5516666666668</v>
+        <v>243.5466666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6410,10 +6388,10 @@
         <v>243.2</v>
       </c>
       <c r="F155" t="n">
-        <v>1331.3409</v>
+        <v>1711.9285</v>
       </c>
       <c r="G155" t="n">
-        <v>243.5416666666668</v>
+        <v>243.5516666666668</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6442,19 +6420,19 @@
         <v>243.2</v>
       </c>
       <c r="C156" t="n">
-        <v>243.3</v>
+        <v>243.2</v>
       </c>
       <c r="D156" t="n">
-        <v>243.3</v>
+        <v>243.2</v>
       </c>
       <c r="E156" t="n">
         <v>243.2</v>
       </c>
       <c r="F156" t="n">
-        <v>1119.2242</v>
+        <v>1331.3409</v>
       </c>
       <c r="G156" t="n">
-        <v>243.5333333333334</v>
+        <v>243.5416666666668</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6480,7 +6458,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>243.3</v>
+        <v>243.2</v>
       </c>
       <c r="C157" t="n">
         <v>243.3</v>
@@ -6489,13 +6467,13 @@
         <v>243.3</v>
       </c>
       <c r="E157" t="n">
-        <v>243.3</v>
+        <v>243.2</v>
       </c>
       <c r="F157" t="n">
-        <v>2249</v>
+        <v>1119.2242</v>
       </c>
       <c r="G157" t="n">
-        <v>243.5250000000001</v>
+        <v>243.5333333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6533,10 +6511,10 @@
         <v>243.3</v>
       </c>
       <c r="F158" t="n">
-        <v>5596.6762</v>
+        <v>2249</v>
       </c>
       <c r="G158" t="n">
-        <v>243.5150000000001</v>
+        <v>243.5250000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6562,22 +6540,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>243.5</v>
+        <v>243.3</v>
       </c>
       <c r="C159" t="n">
         <v>243.3</v>
       </c>
       <c r="D159" t="n">
-        <v>243.5</v>
+        <v>243.3</v>
       </c>
       <c r="E159" t="n">
         <v>243.3</v>
       </c>
       <c r="F159" t="n">
-        <v>10915.9999</v>
+        <v>5596.6762</v>
       </c>
       <c r="G159" t="n">
-        <v>243.5066666666668</v>
+        <v>243.5150000000001</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6603,22 +6581,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>243.3</v>
+        <v>243.5</v>
       </c>
       <c r="C160" t="n">
         <v>243.3</v>
       </c>
       <c r="D160" t="n">
-        <v>243.3</v>
+        <v>243.5</v>
       </c>
       <c r="E160" t="n">
         <v>243.3</v>
       </c>
       <c r="F160" t="n">
-        <v>2170.685</v>
+        <v>10915.9999</v>
       </c>
       <c r="G160" t="n">
-        <v>243.4983333333334</v>
+        <v>243.5066666666668</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6656,10 +6634,10 @@
         <v>243.3</v>
       </c>
       <c r="F161" t="n">
-        <v>155.895</v>
+        <v>2170.685</v>
       </c>
       <c r="G161" t="n">
-        <v>243.4916666666668</v>
+        <v>243.4983333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6697,10 +6675,10 @@
         <v>243.3</v>
       </c>
       <c r="F162" t="n">
-        <v>1970.9999</v>
+        <v>155.895</v>
       </c>
       <c r="G162" t="n">
-        <v>243.4850000000001</v>
+        <v>243.4916666666668</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6726,22 +6704,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>243.4</v>
+        <v>243.3</v>
       </c>
       <c r="C163" t="n">
         <v>243.3</v>
       </c>
       <c r="D163" t="n">
-        <v>243.4</v>
+        <v>243.3</v>
       </c>
       <c r="E163" t="n">
         <v>243.3</v>
       </c>
       <c r="F163" t="n">
-        <v>774.9574</v>
+        <v>1970.9999</v>
       </c>
       <c r="G163" t="n">
-        <v>243.4900000000001</v>
+        <v>243.4850000000001</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6770,19 +6748,19 @@
         <v>243.4</v>
       </c>
       <c r="C164" t="n">
-        <v>243.4</v>
+        <v>243.3</v>
       </c>
       <c r="D164" t="n">
         <v>243.4</v>
       </c>
       <c r="E164" t="n">
-        <v>243.4</v>
+        <v>243.3</v>
       </c>
       <c r="F164" t="n">
-        <v>276.3725</v>
+        <v>774.9574</v>
       </c>
       <c r="G164" t="n">
-        <v>243.4966666666667</v>
+        <v>243.4900000000001</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6808,22 +6786,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>243.5</v>
+        <v>243.4</v>
       </c>
       <c r="C165" t="n">
         <v>243.4</v>
       </c>
       <c r="D165" t="n">
-        <v>243.5</v>
+        <v>243.4</v>
       </c>
       <c r="E165" t="n">
         <v>243.4</v>
       </c>
       <c r="F165" t="n">
-        <v>1409.2815</v>
+        <v>276.3725</v>
       </c>
       <c r="G165" t="n">
-        <v>243.5033333333334</v>
+        <v>243.4966666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6849,22 +6827,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>243.3</v>
+        <v>243.5</v>
       </c>
       <c r="C166" t="n">
-        <v>243.3</v>
+        <v>243.4</v>
       </c>
       <c r="D166" t="n">
-        <v>244.7</v>
+        <v>243.5</v>
       </c>
       <c r="E166" t="n">
-        <v>243.3</v>
+        <v>243.4</v>
       </c>
       <c r="F166" t="n">
-        <v>4120.3865</v>
+        <v>1409.2815</v>
       </c>
       <c r="G166" t="n">
-        <v>243.5066666666667</v>
+        <v>243.5033333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6896,16 +6874,16 @@
         <v>243.3</v>
       </c>
       <c r="D167" t="n">
-        <v>243.3</v>
+        <v>244.7</v>
       </c>
       <c r="E167" t="n">
         <v>243.3</v>
       </c>
       <c r="F167" t="n">
-        <v>1687.3883</v>
+        <v>4120.3865</v>
       </c>
       <c r="G167" t="n">
-        <v>243.51</v>
+        <v>243.5066666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6943,10 +6921,10 @@
         <v>243.3</v>
       </c>
       <c r="F168" t="n">
-        <v>9673.384400000001</v>
+        <v>1687.3883</v>
       </c>
       <c r="G168" t="n">
-        <v>243.515</v>
+        <v>243.51</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6972,22 +6950,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>243.2</v>
+        <v>243.3</v>
       </c>
       <c r="C169" t="n">
-        <v>243.2</v>
+        <v>243.3</v>
       </c>
       <c r="D169" t="n">
-        <v>243.2</v>
+        <v>243.3</v>
       </c>
       <c r="E169" t="n">
-        <v>243.2</v>
+        <v>243.3</v>
       </c>
       <c r="F169" t="n">
-        <v>5077.9</v>
+        <v>9673.384400000001</v>
       </c>
       <c r="G169" t="n">
-        <v>243.5183333333333</v>
+        <v>243.515</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7025,10 +7003,10 @@
         <v>243.2</v>
       </c>
       <c r="F170" t="n">
-        <v>3199.9639</v>
+        <v>5077.9</v>
       </c>
       <c r="G170" t="n">
-        <v>243.52</v>
+        <v>243.5183333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7054,22 +7032,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>243.1</v>
+        <v>243.2</v>
       </c>
       <c r="C171" t="n">
-        <v>243</v>
+        <v>243.2</v>
       </c>
       <c r="D171" t="n">
-        <v>243.1</v>
+        <v>243.2</v>
       </c>
       <c r="E171" t="n">
-        <v>243</v>
+        <v>243.2</v>
       </c>
       <c r="F171" t="n">
-        <v>14622.3412</v>
+        <v>3199.9639</v>
       </c>
       <c r="G171" t="n">
-        <v>243.4916666666667</v>
+        <v>243.52</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7095,22 +7073,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="C172" t="n">
         <v>243</v>
       </c>
       <c r="D172" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="E172" t="n">
         <v>243</v>
       </c>
       <c r="F172" t="n">
-        <v>645.7931</v>
+        <v>14622.3412</v>
       </c>
       <c r="G172" t="n">
-        <v>243.4883333333333</v>
+        <v>243.4916666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7148,10 +7126,10 @@
         <v>243</v>
       </c>
       <c r="F173" t="n">
-        <v>153.9793</v>
+        <v>645.7931</v>
       </c>
       <c r="G173" t="n">
-        <v>243.485</v>
+        <v>243.4883333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7189,10 +7167,10 @@
         <v>243</v>
       </c>
       <c r="F174" t="n">
-        <v>225.7299</v>
+        <v>153.9793</v>
       </c>
       <c r="G174" t="n">
-        <v>243.4833333333333</v>
+        <v>243.485</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7230,10 +7208,10 @@
         <v>243</v>
       </c>
       <c r="F175" t="n">
-        <v>1659.2076</v>
+        <v>225.7299</v>
       </c>
       <c r="G175" t="n">
-        <v>243.4816666666666</v>
+        <v>243.4833333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7271,10 +7249,10 @@
         <v>243</v>
       </c>
       <c r="F176" t="n">
-        <v>177.9981</v>
+        <v>1659.2076</v>
       </c>
       <c r="G176" t="n">
-        <v>243.48</v>
+        <v>243.4816666666666</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7312,10 +7290,10 @@
         <v>243</v>
       </c>
       <c r="F177" t="n">
-        <v>1109</v>
+        <v>177.9981</v>
       </c>
       <c r="G177" t="n">
-        <v>243.4783333333333</v>
+        <v>243.48</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7353,10 +7331,10 @@
         <v>243</v>
       </c>
       <c r="F178" t="n">
-        <v>2475</v>
+        <v>1109</v>
       </c>
       <c r="G178" t="n">
-        <v>243.4766666666666</v>
+        <v>243.4783333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7382,22 +7360,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>243.3</v>
+        <v>243</v>
       </c>
       <c r="C179" t="n">
-        <v>243.3</v>
+        <v>243</v>
       </c>
       <c r="D179" t="n">
-        <v>243.3</v>
+        <v>243</v>
       </c>
       <c r="E179" t="n">
-        <v>243.3</v>
+        <v>243</v>
       </c>
       <c r="F179" t="n">
-        <v>397.4232</v>
+        <v>2475</v>
       </c>
       <c r="G179" t="n">
-        <v>243.4783333333333</v>
+        <v>243.4766666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7423,22 +7401,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>243</v>
+        <v>243.3</v>
       </c>
       <c r="C180" t="n">
-        <v>243</v>
+        <v>243.3</v>
       </c>
       <c r="D180" t="n">
-        <v>243</v>
+        <v>243.3</v>
       </c>
       <c r="E180" t="n">
-        <v>243</v>
+        <v>243.3</v>
       </c>
       <c r="F180" t="n">
-        <v>841</v>
+        <v>397.4232</v>
       </c>
       <c r="G180" t="n">
-        <v>243.4749999999999</v>
+        <v>243.4783333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7476,10 +7454,10 @@
         <v>243</v>
       </c>
       <c r="F181" t="n">
-        <v>132.6679</v>
+        <v>841</v>
       </c>
       <c r="G181" t="n">
-        <v>243.4716666666666</v>
+        <v>243.4749999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7505,22 +7483,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="C182" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="D182" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="E182" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="F182" t="n">
-        <v>62.98</v>
+        <v>132.6679</v>
       </c>
       <c r="G182" t="n">
-        <v>243.4699999999999</v>
+        <v>243.4716666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7558,10 +7536,10 @@
         <v>243.1</v>
       </c>
       <c r="F183" t="n">
-        <v>184.1877</v>
+        <v>62.98</v>
       </c>
       <c r="G183" t="n">
-        <v>243.4433333333332</v>
+        <v>243.4699999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7587,22 +7565,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="C184" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="D184" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="E184" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="F184" t="n">
-        <v>593.4559</v>
+        <v>184.1877</v>
       </c>
       <c r="G184" t="n">
-        <v>243.4649999999999</v>
+        <v>243.4433333333332</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7640,10 +7618,10 @@
         <v>244.4</v>
       </c>
       <c r="F185" t="n">
-        <v>593.4601</v>
+        <v>593.4559</v>
       </c>
       <c r="G185" t="n">
-        <v>243.4849999999998</v>
+        <v>243.4649999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7669,22 +7647,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>243.1</v>
+        <v>244.4</v>
       </c>
       <c r="C186" t="n">
-        <v>243.1</v>
+        <v>244.4</v>
       </c>
       <c r="D186" t="n">
-        <v>243.1</v>
+        <v>244.4</v>
       </c>
       <c r="E186" t="n">
-        <v>243.1</v>
+        <v>244.4</v>
       </c>
       <c r="F186" t="n">
-        <v>437</v>
+        <v>593.4601</v>
       </c>
       <c r="G186" t="n">
-        <v>243.4833333333332</v>
+        <v>243.4849999999998</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7722,10 +7700,10 @@
         <v>243.1</v>
       </c>
       <c r="F187" t="n">
-        <v>575.1759</v>
+        <v>437</v>
       </c>
       <c r="G187" t="n">
-        <v>243.4649999999998</v>
+        <v>243.4833333333332</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7763,10 +7741,10 @@
         <v>243.1</v>
       </c>
       <c r="F188" t="n">
-        <v>2282.9999</v>
+        <v>575.1759</v>
       </c>
       <c r="G188" t="n">
-        <v>243.4466666666665</v>
+        <v>243.4649999999998</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7804,10 +7782,10 @@
         <v>243.1</v>
       </c>
       <c r="F189" t="n">
-        <v>682</v>
+        <v>2282.9999</v>
       </c>
       <c r="G189" t="n">
-        <v>243.4283333333332</v>
+        <v>243.4466666666665</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7845,10 +7823,10 @@
         <v>243.1</v>
       </c>
       <c r="F190" t="n">
-        <v>1552.9999</v>
+        <v>682</v>
       </c>
       <c r="G190" t="n">
-        <v>243.4099999999998</v>
+        <v>243.4283333333332</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7886,10 +7864,10 @@
         <v>243.1</v>
       </c>
       <c r="F191" t="n">
-        <v>1342</v>
+        <v>1552.9999</v>
       </c>
       <c r="G191" t="n">
-        <v>243.4066666666665</v>
+        <v>243.4099999999998</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7927,10 +7905,10 @@
         <v>243.1</v>
       </c>
       <c r="F192" t="n">
-        <v>1074</v>
+        <v>1342</v>
       </c>
       <c r="G192" t="n">
-        <v>243.4033333333332</v>
+        <v>243.4066666666665</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7968,10 +7946,10 @@
         <v>243.1</v>
       </c>
       <c r="F193" t="n">
-        <v>2404.9999</v>
+        <v>1074</v>
       </c>
       <c r="G193" t="n">
-        <v>243.3766666666665</v>
+        <v>243.4033333333332</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -8000,27 +7978,29 @@
         <v>243.1</v>
       </c>
       <c r="C194" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="D194" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="E194" t="n">
         <v>243.1</v>
       </c>
       <c r="F194" t="n">
-        <v>11.0359</v>
+        <v>2404.9999</v>
       </c>
       <c r="G194" t="n">
-        <v>243.3949999999999</v>
+        <v>243.3766666666665</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>243.1</v>
+      </c>
       <c r="K194" t="n">
         <v>243</v>
       </c>
@@ -8038,7 +8018,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="C195" t="n">
         <v>244.4</v>
@@ -8047,13 +8027,13 @@
         <v>244.4</v>
       </c>
       <c r="E195" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="F195" t="n">
-        <v>1788.5271</v>
+        <v>11.0359</v>
       </c>
       <c r="G195" t="n">
-        <v>243.4116666666665</v>
+        <v>243.3949999999999</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8079,22 +8059,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>243.1</v>
+        <v>244.4</v>
       </c>
       <c r="C196" t="n">
-        <v>243.1</v>
+        <v>244.4</v>
       </c>
       <c r="D196" t="n">
-        <v>243.1</v>
+        <v>244.4</v>
       </c>
       <c r="E196" t="n">
-        <v>243.1</v>
+        <v>244.4</v>
       </c>
       <c r="F196" t="n">
-        <v>415.3354</v>
+        <v>1788.5271</v>
       </c>
       <c r="G196" t="n">
-        <v>243.4066666666666</v>
+        <v>243.4116666666665</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8120,22 +8100,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="C197" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="D197" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="E197" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="F197" t="n">
-        <v>2.0459</v>
+        <v>415.3354</v>
       </c>
       <c r="G197" t="n">
-        <v>243.4083333333332</v>
+        <v>243.4066666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8161,22 +8141,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>243.1</v>
+        <v>244.4</v>
       </c>
       <c r="C198" t="n">
-        <v>243.1</v>
+        <v>244.4</v>
       </c>
       <c r="D198" t="n">
-        <v>243.1</v>
+        <v>244.4</v>
       </c>
       <c r="E198" t="n">
-        <v>243.1</v>
+        <v>244.4</v>
       </c>
       <c r="F198" t="n">
-        <v>525</v>
+        <v>2.0459</v>
       </c>
       <c r="G198" t="n">
-        <v>243.3933333333332</v>
+        <v>243.4083333333332</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8202,22 +8182,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>243.3</v>
+        <v>243.1</v>
       </c>
       <c r="C199" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="D199" t="n">
-        <v>243.3</v>
+        <v>243.1</v>
       </c>
       <c r="E199" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="F199" t="n">
-        <v>21522.5524</v>
+        <v>525</v>
       </c>
       <c r="G199" t="n">
-        <v>243.3766666666666</v>
+        <v>243.3933333333332</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8243,22 +8223,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>244.4</v>
+        <v>243.3</v>
       </c>
       <c r="C200" t="n">
-        <v>244.4</v>
+        <v>243</v>
       </c>
       <c r="D200" t="n">
-        <v>244.4</v>
+        <v>243.3</v>
       </c>
       <c r="E200" t="n">
-        <v>244.4</v>
+        <v>243</v>
       </c>
       <c r="F200" t="n">
-        <v>2.0549</v>
+        <v>21522.5524</v>
       </c>
       <c r="G200" t="n">
-        <v>243.3716666666665</v>
+        <v>243.3766666666666</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8296,10 +8276,10 @@
         <v>244.4</v>
       </c>
       <c r="F201" t="n">
-        <v>9049</v>
+        <v>2.0549</v>
       </c>
       <c r="G201" t="n">
-        <v>243.3766666666665</v>
+        <v>243.3716666666665</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8337,10 +8317,10 @@
         <v>244.4</v>
       </c>
       <c r="F202" t="n">
-        <v>0.1611</v>
+        <v>9049</v>
       </c>
       <c r="G202" t="n">
-        <v>243.3833333333332</v>
+        <v>243.3766666666665</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8378,10 +8358,10 @@
         <v>244.4</v>
       </c>
       <c r="F203" t="n">
-        <v>683.5091</v>
+        <v>0.1611</v>
       </c>
       <c r="G203" t="n">
-        <v>243.3899999999998</v>
+        <v>243.3833333333332</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8407,22 +8387,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>244.8</v>
+        <v>244.4</v>
       </c>
       <c r="C204" t="n">
-        <v>245.8</v>
+        <v>244.4</v>
       </c>
       <c r="D204" t="n">
-        <v>245.8</v>
+        <v>244.4</v>
       </c>
       <c r="E204" t="n">
-        <v>244.8</v>
+        <v>244.4</v>
       </c>
       <c r="F204" t="n">
-        <v>4467.7646</v>
+        <v>683.5091</v>
       </c>
       <c r="G204" t="n">
-        <v>243.4199999999998</v>
+        <v>243.3899999999998</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8448,22 +8428,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>244.2</v>
+        <v>244.8</v>
       </c>
       <c r="C205" t="n">
-        <v>246</v>
+        <v>245.8</v>
       </c>
       <c r="D205" t="n">
-        <v>246</v>
+        <v>245.8</v>
       </c>
       <c r="E205" t="n">
-        <v>244.2</v>
+        <v>244.8</v>
       </c>
       <c r="F205" t="n">
-        <v>3470.9739</v>
+        <v>4467.7646</v>
       </c>
       <c r="G205" t="n">
-        <v>243.4633333333332</v>
+        <v>243.4199999999998</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8489,22 +8469,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>245.9</v>
+        <v>244.2</v>
       </c>
       <c r="C206" t="n">
-        <v>244.6</v>
+        <v>246</v>
       </c>
       <c r="D206" t="n">
         <v>246</v>
       </c>
       <c r="E206" t="n">
-        <v>244.6</v>
+        <v>244.2</v>
       </c>
       <c r="F206" t="n">
-        <v>5484.5753</v>
+        <v>3470.9739</v>
       </c>
       <c r="G206" t="n">
-        <v>243.4833333333332</v>
+        <v>243.4633333333332</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8530,22 +8510,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>246</v>
+        <v>245.9</v>
       </c>
       <c r="C207" t="n">
-        <v>246</v>
+        <v>244.6</v>
       </c>
       <c r="D207" t="n">
         <v>246</v>
       </c>
       <c r="E207" t="n">
-        <v>246</v>
+        <v>244.6</v>
       </c>
       <c r="F207" t="n">
-        <v>26.9013</v>
+        <v>5484.5753</v>
       </c>
       <c r="G207" t="n">
-        <v>243.5266666666665</v>
+        <v>243.4833333333332</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8571,22 +8551,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>245.8</v>
+        <v>246</v>
       </c>
       <c r="C208" t="n">
-        <v>245.8</v>
+        <v>246</v>
       </c>
       <c r="D208" t="n">
-        <v>245.8</v>
+        <v>246</v>
       </c>
       <c r="E208" t="n">
-        <v>245.8</v>
+        <v>246</v>
       </c>
       <c r="F208" t="n">
-        <v>18</v>
+        <v>26.9013</v>
       </c>
       <c r="G208" t="n">
-        <v>243.5666666666665</v>
+        <v>243.5266666666665</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8612,22 +8592,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>244.1</v>
+        <v>245.8</v>
       </c>
       <c r="C209" t="n">
-        <v>244</v>
+        <v>245.8</v>
       </c>
       <c r="D209" t="n">
-        <v>244.1</v>
+        <v>245.8</v>
       </c>
       <c r="E209" t="n">
-        <v>244</v>
+        <v>245.8</v>
       </c>
       <c r="F209" t="n">
-        <v>2172.8315</v>
+        <v>18</v>
       </c>
       <c r="G209" t="n">
-        <v>243.5766666666665</v>
+        <v>243.5666666666665</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8653,22 +8633,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>245.5</v>
+        <v>244.1</v>
       </c>
       <c r="C210" t="n">
-        <v>245.5</v>
+        <v>244</v>
       </c>
       <c r="D210" t="n">
-        <v>245.5</v>
+        <v>244.1</v>
       </c>
       <c r="E210" t="n">
-        <v>245.5</v>
+        <v>244</v>
       </c>
       <c r="F210" t="n">
-        <v>2.0409</v>
+        <v>2172.8315</v>
       </c>
       <c r="G210" t="n">
-        <v>243.6116666666665</v>
+        <v>243.5766666666665</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8694,22 +8674,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>244.2</v>
+        <v>245.5</v>
       </c>
       <c r="C211" t="n">
-        <v>244.2</v>
+        <v>245.5</v>
       </c>
       <c r="D211" t="n">
-        <v>244.2</v>
+        <v>245.5</v>
       </c>
       <c r="E211" t="n">
-        <v>244.2</v>
+        <v>245.5</v>
       </c>
       <c r="F211" t="n">
-        <v>1287.5</v>
+        <v>2.0409</v>
       </c>
       <c r="G211" t="n">
-        <v>243.6249999999999</v>
+        <v>243.6116666666665</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8747,10 +8727,10 @@
         <v>244.2</v>
       </c>
       <c r="F212" t="n">
-        <v>184</v>
+        <v>1287.5</v>
       </c>
       <c r="G212" t="n">
-        <v>243.6383333333332</v>
+        <v>243.6249999999999</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8776,22 +8756,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>243.6</v>
+        <v>244.2</v>
       </c>
       <c r="C213" t="n">
-        <v>244.8</v>
+        <v>244.2</v>
       </c>
       <c r="D213" t="n">
-        <v>244.8</v>
+        <v>244.2</v>
       </c>
       <c r="E213" t="n">
-        <v>243.6</v>
+        <v>244.2</v>
       </c>
       <c r="F213" t="n">
-        <v>3864.6685</v>
+        <v>184</v>
       </c>
       <c r="G213" t="n">
-        <v>243.6649999999999</v>
+        <v>243.6383333333332</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8820,19 +8800,19 @@
         <v>243.6</v>
       </c>
       <c r="C214" t="n">
-        <v>243.6</v>
+        <v>244.8</v>
       </c>
       <c r="D214" t="n">
-        <v>243.6</v>
+        <v>244.8</v>
       </c>
       <c r="E214" t="n">
         <v>243.6</v>
       </c>
       <c r="F214" t="n">
-        <v>400</v>
+        <v>3864.6685</v>
       </c>
       <c r="G214" t="n">
-        <v>243.6716666666665</v>
+        <v>243.6649999999999</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8870,10 +8850,10 @@
         <v>243.6</v>
       </c>
       <c r="F215" t="n">
-        <v>2281.0635</v>
+        <v>400</v>
       </c>
       <c r="G215" t="n">
-        <v>243.6783333333332</v>
+        <v>243.6716666666665</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8899,22 +8879,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>243.4</v>
+        <v>243.6</v>
       </c>
       <c r="C216" t="n">
-        <v>244.6</v>
+        <v>243.6</v>
       </c>
       <c r="D216" t="n">
-        <v>244.6</v>
+        <v>243.6</v>
       </c>
       <c r="E216" t="n">
-        <v>243.4</v>
+        <v>243.6</v>
       </c>
       <c r="F216" t="n">
-        <v>10.2319</v>
+        <v>2281.0635</v>
       </c>
       <c r="G216" t="n">
-        <v>243.6999999999999</v>
+        <v>243.6783333333332</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8940,7 +8920,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>244.6</v>
+        <v>243.4</v>
       </c>
       <c r="C217" t="n">
         <v>244.6</v>
@@ -8949,13 +8929,13 @@
         <v>244.6</v>
       </c>
       <c r="E217" t="n">
-        <v>244.6</v>
+        <v>243.4</v>
       </c>
       <c r="F217" t="n">
-        <v>198.0594</v>
+        <v>10.2319</v>
       </c>
       <c r="G217" t="n">
-        <v>243.7216666666666</v>
+        <v>243.6999999999999</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8981,22 +8961,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>244.8</v>
+        <v>244.6</v>
       </c>
       <c r="C218" t="n">
-        <v>244.8</v>
+        <v>244.6</v>
       </c>
       <c r="D218" t="n">
-        <v>244.8</v>
+        <v>244.6</v>
       </c>
       <c r="E218" t="n">
-        <v>244.8</v>
+        <v>244.6</v>
       </c>
       <c r="F218" t="n">
-        <v>474.3938</v>
+        <v>198.0594</v>
       </c>
       <c r="G218" t="n">
-        <v>243.7466666666666</v>
+        <v>243.7216666666666</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -9034,10 +9014,10 @@
         <v>244.8</v>
       </c>
       <c r="F219" t="n">
-        <v>173.582</v>
+        <v>474.3938</v>
       </c>
       <c r="G219" t="n">
-        <v>243.7716666666666</v>
+        <v>243.7466666666666</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -9063,22 +9043,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>244.1</v>
+        <v>244.8</v>
       </c>
       <c r="C220" t="n">
-        <v>244</v>
+        <v>244.8</v>
       </c>
       <c r="D220" t="n">
-        <v>244.1</v>
+        <v>244.8</v>
       </c>
       <c r="E220" t="n">
-        <v>244</v>
+        <v>244.8</v>
       </c>
       <c r="F220" t="n">
-        <v>1988.5187</v>
+        <v>173.582</v>
       </c>
       <c r="G220" t="n">
-        <v>243.7833333333332</v>
+        <v>243.7716666666666</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -9104,22 +9084,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>244.8</v>
+        <v>244.1</v>
       </c>
       <c r="C221" t="n">
-        <v>244.8</v>
+        <v>244</v>
       </c>
       <c r="D221" t="n">
-        <v>244.8</v>
+        <v>244.1</v>
       </c>
       <c r="E221" t="n">
-        <v>244.8</v>
+        <v>244</v>
       </c>
       <c r="F221" t="n">
-        <v>2.0425</v>
+        <v>1988.5187</v>
       </c>
       <c r="G221" t="n">
-        <v>243.8083333333333</v>
+        <v>243.7833333333332</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -9157,10 +9137,10 @@
         <v>244.8</v>
       </c>
       <c r="F222" t="n">
-        <v>220.066</v>
+        <v>2.0425</v>
       </c>
       <c r="G222" t="n">
-        <v>243.8333333333332</v>
+        <v>243.8083333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -9198,10 +9178,10 @@
         <v>244.8</v>
       </c>
       <c r="F223" t="n">
-        <v>224.0672</v>
+        <v>220.066</v>
       </c>
       <c r="G223" t="n">
-        <v>243.8583333333332</v>
+        <v>243.8333333333332</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -9239,10 +9219,10 @@
         <v>244.8</v>
       </c>
       <c r="F224" t="n">
-        <v>633.9863</v>
+        <v>224.0672</v>
       </c>
       <c r="G224" t="n">
-        <v>243.8816666666666</v>
+        <v>243.8583333333332</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -9280,10 +9260,10 @@
         <v>244.8</v>
       </c>
       <c r="F225" t="n">
-        <v>250.0202</v>
+        <v>633.9863</v>
       </c>
       <c r="G225" t="n">
-        <v>243.9049999999999</v>
+        <v>243.8816666666666</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9321,10 +9301,10 @@
         <v>244.8</v>
       </c>
       <c r="F226" t="n">
-        <v>379.5959</v>
+        <v>250.0202</v>
       </c>
       <c r="G226" t="n">
-        <v>243.9299999999999</v>
+        <v>243.9049999999999</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -9362,10 +9342,10 @@
         <v>244.8</v>
       </c>
       <c r="F227" t="n">
-        <v>584.1704</v>
+        <v>379.5959</v>
       </c>
       <c r="G227" t="n">
-        <v>243.9549999999999</v>
+        <v>243.9299999999999</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9391,22 +9371,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>245.9</v>
+        <v>244.8</v>
       </c>
       <c r="C228" t="n">
-        <v>245.9</v>
+        <v>244.8</v>
       </c>
       <c r="D228" t="n">
-        <v>245.9</v>
+        <v>244.8</v>
       </c>
       <c r="E228" t="n">
-        <v>245.9</v>
+        <v>244.8</v>
       </c>
       <c r="F228" t="n">
-        <v>5</v>
+        <v>584.1704</v>
       </c>
       <c r="G228" t="n">
-        <v>243.9983333333332</v>
+        <v>243.9549999999999</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9444,10 +9424,10 @@
         <v>245.9</v>
       </c>
       <c r="F229" t="n">
-        <v>1498.3458</v>
+        <v>5</v>
       </c>
       <c r="G229" t="n">
-        <v>244.0433333333332</v>
+        <v>243.9983333333332</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9473,22 +9453,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>245.8</v>
+        <v>245.9</v>
       </c>
       <c r="C230" t="n">
-        <v>245.8</v>
+        <v>245.9</v>
       </c>
       <c r="D230" t="n">
-        <v>245.8</v>
+        <v>245.9</v>
       </c>
       <c r="E230" t="n">
-        <v>245.8</v>
+        <v>245.9</v>
       </c>
       <c r="F230" t="n">
-        <v>448.1344</v>
+        <v>1498.3458</v>
       </c>
       <c r="G230" t="n">
-        <v>244.0866666666665</v>
+        <v>244.0433333333332</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9526,10 +9506,10 @@
         <v>245.8</v>
       </c>
       <c r="F231" t="n">
-        <v>1112.3336</v>
+        <v>448.1344</v>
       </c>
       <c r="G231" t="n">
-        <v>244.1333333333332</v>
+        <v>244.0866666666665</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9564,13 +9544,13 @@
         <v>245.8</v>
       </c>
       <c r="E232" t="n">
-        <v>245.6</v>
+        <v>245.8</v>
       </c>
       <c r="F232" t="n">
-        <v>1662.6319</v>
+        <v>1112.3336</v>
       </c>
       <c r="G232" t="n">
-        <v>244.1799999999998</v>
+        <v>244.1333333333332</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9596,22 +9576,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>245.1</v>
+        <v>245.8</v>
       </c>
       <c r="C233" t="n">
-        <v>245.9</v>
+        <v>245.8</v>
       </c>
       <c r="D233" t="n">
-        <v>245.9</v>
+        <v>245.8</v>
       </c>
       <c r="E233" t="n">
-        <v>245.1</v>
+        <v>245.6</v>
       </c>
       <c r="F233" t="n">
-        <v>46.5</v>
+        <v>1662.6319</v>
       </c>
       <c r="G233" t="n">
-        <v>244.2283333333332</v>
+        <v>244.1799999999998</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9637,22 +9617,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
+        <v>245.1</v>
+      </c>
+      <c r="C234" t="n">
         <v>245.9</v>
       </c>
-      <c r="C234" t="n">
-        <v>246.5</v>
-      </c>
       <c r="D234" t="n">
-        <v>246.5</v>
+        <v>245.9</v>
       </c>
       <c r="E234" t="n">
-        <v>245.9</v>
+        <v>245.1</v>
       </c>
       <c r="F234" t="n">
-        <v>1958.5757</v>
+        <v>46.5</v>
       </c>
       <c r="G234" t="n">
-        <v>244.2866666666665</v>
+        <v>244.2283333333332</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9678,22 +9658,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>246.6</v>
+        <v>245.9</v>
       </c>
       <c r="C235" t="n">
-        <v>246.8</v>
+        <v>246.5</v>
       </c>
       <c r="D235" t="n">
-        <v>246.8</v>
+        <v>246.5</v>
       </c>
       <c r="E235" t="n">
-        <v>246.6</v>
+        <v>245.9</v>
       </c>
       <c r="F235" t="n">
-        <v>71.5187</v>
+        <v>1958.5757</v>
       </c>
       <c r="G235" t="n">
-        <v>244.3499999999998</v>
+        <v>244.2866666666665</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9719,22 +9699,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>246.7</v>
+        <v>246.6</v>
       </c>
       <c r="C236" t="n">
-        <v>246.7</v>
+        <v>246.8</v>
       </c>
       <c r="D236" t="n">
-        <v>246.7</v>
+        <v>246.8</v>
       </c>
       <c r="E236" t="n">
-        <v>246.7</v>
+        <v>246.6</v>
       </c>
       <c r="F236" t="n">
-        <v>964.0071</v>
+        <v>71.5187</v>
       </c>
       <c r="G236" t="n">
-        <v>244.4116666666665</v>
+        <v>244.3499999999998</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9772,10 +9752,10 @@
         <v>246.7</v>
       </c>
       <c r="F237" t="n">
-        <v>4.5</v>
+        <v>964.0071</v>
       </c>
       <c r="G237" t="n">
-        <v>244.4733333333332</v>
+        <v>244.4116666666665</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9804,19 +9784,19 @@
         <v>246.7</v>
       </c>
       <c r="C238" t="n">
-        <v>246.8</v>
+        <v>246.7</v>
       </c>
       <c r="D238" t="n">
-        <v>246.8</v>
+        <v>246.7</v>
       </c>
       <c r="E238" t="n">
         <v>246.7</v>
       </c>
       <c r="F238" t="n">
-        <v>640</v>
+        <v>4.5</v>
       </c>
       <c r="G238" t="n">
-        <v>244.5366666666665</v>
+        <v>244.4733333333332</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9842,7 +9822,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>246.8</v>
+        <v>246.7</v>
       </c>
       <c r="C239" t="n">
         <v>246.8</v>
@@ -9851,13 +9831,13 @@
         <v>246.8</v>
       </c>
       <c r="E239" t="n">
-        <v>246.8</v>
+        <v>246.7</v>
       </c>
       <c r="F239" t="n">
-        <v>4.5</v>
+        <v>640</v>
       </c>
       <c r="G239" t="n">
-        <v>244.5949999999998</v>
+        <v>244.5366666666665</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9886,25 +9866,25 @@
         <v>246.8</v>
       </c>
       <c r="C240" t="n">
-        <v>246.5</v>
+        <v>246.8</v>
       </c>
       <c r="D240" t="n">
         <v>246.8</v>
       </c>
       <c r="E240" t="n">
-        <v>246.5</v>
+        <v>246.8</v>
       </c>
       <c r="F240" t="n">
-        <v>72</v>
+        <v>4.5</v>
       </c>
       <c r="G240" t="n">
-        <v>244.6533333333332</v>
+        <v>244.5949999999998</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
@@ -9912,11 +9892,11 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>1</v>
+        <v>1.010637860082305</v>
       </c>
     </row>
     <row r="241">
@@ -9924,38 +9904,32 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>246.4</v>
+        <v>246.8</v>
       </c>
       <c r="C241" t="n">
-        <v>246.3</v>
+        <v>246.5</v>
       </c>
       <c r="D241" t="n">
-        <v>246.4</v>
+        <v>246.8</v>
       </c>
       <c r="E241" t="n">
-        <v>246.3</v>
+        <v>246.5</v>
       </c>
       <c r="F241" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G241" t="n">
-        <v>244.7083333333331</v>
+        <v>244.6533333333332</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>243</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9965,38 +9939,32 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>246.2</v>
+        <v>246.4</v>
       </c>
       <c r="C242" t="n">
-        <v>246.1</v>
+        <v>246.3</v>
       </c>
       <c r="D242" t="n">
-        <v>246.2</v>
+        <v>246.4</v>
       </c>
       <c r="E242" t="n">
-        <v>246.1</v>
+        <v>246.3</v>
       </c>
       <c r="F242" t="n">
         <v>36</v>
       </c>
       <c r="G242" t="n">
-        <v>244.7583333333332</v>
+        <v>244.7083333333331</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>243</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10006,38 +9974,32 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>246</v>
+        <v>246.2</v>
       </c>
       <c r="C243" t="n">
-        <v>246</v>
+        <v>246.1</v>
       </c>
       <c r="D243" t="n">
-        <v>246</v>
+        <v>246.2</v>
       </c>
       <c r="E243" t="n">
-        <v>246</v>
+        <v>246.1</v>
       </c>
       <c r="F243" t="n">
-        <v>1332.96</v>
+        <v>36</v>
       </c>
       <c r="G243" t="n">
-        <v>244.8066666666665</v>
+        <v>244.7583333333332</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>243</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10059,10 +10021,10 @@
         <v>246</v>
       </c>
       <c r="F244" t="n">
-        <v>806.8315</v>
+        <v>1332.96</v>
       </c>
       <c r="G244" t="n">
-        <v>244.8333333333331</v>
+        <v>244.8066666666665</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -10071,14 +10033,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>243</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10088,22 +10044,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>245.9</v>
+        <v>246</v>
       </c>
       <c r="C245" t="n">
-        <v>245.9</v>
+        <v>246</v>
       </c>
       <c r="D245" t="n">
-        <v>245.9</v>
+        <v>246</v>
       </c>
       <c r="E245" t="n">
-        <v>245.9</v>
+        <v>246</v>
       </c>
       <c r="F245" t="n">
-        <v>213.7087</v>
+        <v>806.8315</v>
       </c>
       <c r="G245" t="n">
-        <v>244.8583333333331</v>
+        <v>244.8333333333331</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -10112,14 +10068,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>243</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10141,10 +10091,10 @@
         <v>245.9</v>
       </c>
       <c r="F246" t="n">
-        <v>2534.4034</v>
+        <v>213.7087</v>
       </c>
       <c r="G246" t="n">
-        <v>244.9049999999998</v>
+        <v>244.8583333333331</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -10153,14 +10103,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>243</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10170,22 +10114,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>245.8</v>
+        <v>245.9</v>
       </c>
       <c r="C247" t="n">
-        <v>245.8</v>
+        <v>245.9</v>
       </c>
       <c r="D247" t="n">
-        <v>245.8</v>
+        <v>245.9</v>
       </c>
       <c r="E247" t="n">
-        <v>245.6</v>
+        <v>245.9</v>
       </c>
       <c r="F247" t="n">
-        <v>1419.1</v>
+        <v>2534.4034</v>
       </c>
       <c r="G247" t="n">
-        <v>244.9499999999998</v>
+        <v>244.9049999999998</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -10194,14 +10138,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>243</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10211,22 +10149,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>246.5</v>
+        <v>245.8</v>
       </c>
       <c r="C248" t="n">
-        <v>246.5</v>
+        <v>245.8</v>
       </c>
       <c r="D248" t="n">
-        <v>246.5</v>
+        <v>245.8</v>
       </c>
       <c r="E248" t="n">
-        <v>246.5</v>
+        <v>245.6</v>
       </c>
       <c r="F248" t="n">
-        <v>4.5</v>
+        <v>1419.1</v>
       </c>
       <c r="G248" t="n">
-        <v>245.0066666666665</v>
+        <v>244.9499999999998</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -10235,14 +10173,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>243</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10264,10 +10196,10 @@
         <v>246.5</v>
       </c>
       <c r="F249" t="n">
-        <v>1252.2052</v>
+        <v>4.5</v>
       </c>
       <c r="G249" t="n">
-        <v>245.0633333333331</v>
+        <v>245.0066666666665</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -10276,14 +10208,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>243</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10293,22 +10219,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>246.8</v>
+        <v>246.5</v>
       </c>
       <c r="C250" t="n">
-        <v>246.8</v>
+        <v>246.5</v>
       </c>
       <c r="D250" t="n">
-        <v>246.8</v>
+        <v>246.5</v>
       </c>
       <c r="E250" t="n">
-        <v>246.8</v>
+        <v>246.5</v>
       </c>
       <c r="F250" t="n">
-        <v>4.5</v>
+        <v>1252.2052</v>
       </c>
       <c r="G250" t="n">
-        <v>245.1249999999997</v>
+        <v>245.0633333333331</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -10317,14 +10243,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>243</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10334,22 +10254,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>246.6</v>
+        <v>246.8</v>
       </c>
       <c r="C251" t="n">
-        <v>246.6</v>
+        <v>246.8</v>
       </c>
       <c r="D251" t="n">
-        <v>246.6</v>
+        <v>246.8</v>
       </c>
       <c r="E251" t="n">
-        <v>246.5</v>
+        <v>246.8</v>
       </c>
       <c r="F251" t="n">
-        <v>759.686</v>
+        <v>4.5</v>
       </c>
       <c r="G251" t="n">
-        <v>245.1833333333331</v>
+        <v>245.1249999999997</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -10358,14 +10278,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>243</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10378,37 +10292,31 @@
         <v>246.6</v>
       </c>
       <c r="C252" t="n">
-        <v>246.8</v>
+        <v>246.6</v>
       </c>
       <c r="D252" t="n">
-        <v>246.8</v>
+        <v>246.6</v>
       </c>
       <c r="E252" t="n">
-        <v>246.6</v>
+        <v>246.5</v>
       </c>
       <c r="F252" t="n">
-        <v>3160.1481</v>
+        <v>759.686</v>
       </c>
       <c r="G252" t="n">
-        <v>245.2449999999997</v>
+        <v>245.1833333333331</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>243</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
-        <v>1.010637860082305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -10416,7 +10324,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>246.8</v>
+        <v>246.6</v>
       </c>
       <c r="C253" t="n">
         <v>246.8</v>
@@ -10425,13 +10333,13 @@
         <v>246.8</v>
       </c>
       <c r="E253" t="n">
-        <v>246.8</v>
+        <v>246.6</v>
       </c>
       <c r="F253" t="n">
-        <v>1071.3213</v>
+        <v>3160.1481</v>
       </c>
       <c r="G253" t="n">
-        <v>245.3066666666664</v>
+        <v>245.2449999999997</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -10463,16 +10371,16 @@
         <v>246.8</v>
       </c>
       <c r="F254" t="n">
-        <v>241.3134</v>
+        <v>1071.3213</v>
       </c>
       <c r="G254" t="n">
-        <v>245.3466666666664</v>
+        <v>245.3066666666664</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
@@ -10498,10 +10406,10 @@
         <v>246.8</v>
       </c>
       <c r="F255" t="n">
-        <v>151.0121</v>
+        <v>241.3134</v>
       </c>
       <c r="G255" t="n">
-        <v>245.3866666666664</v>
+        <v>245.3466666666664</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -10521,28 +10429,28 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>246.7</v>
+        <v>246.8</v>
       </c>
       <c r="C256" t="n">
-        <v>246.7</v>
+        <v>246.8</v>
       </c>
       <c r="D256" t="n">
-        <v>246.7</v>
+        <v>246.8</v>
       </c>
       <c r="E256" t="n">
-        <v>246.7</v>
+        <v>246.8</v>
       </c>
       <c r="F256" t="n">
-        <v>18</v>
+        <v>151.0121</v>
       </c>
       <c r="G256" t="n">
-        <v>245.4466666666664</v>
+        <v>245.3866666666664</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
@@ -10556,7 +10464,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>246.6</v>
+        <v>246.7</v>
       </c>
       <c r="C257" t="n">
         <v>246.7</v>
@@ -10565,13 +10473,13 @@
         <v>246.7</v>
       </c>
       <c r="E257" t="n">
-        <v>245.1</v>
+        <v>246.7</v>
       </c>
       <c r="F257" t="n">
-        <v>12535.735</v>
+        <v>18</v>
       </c>
       <c r="G257" t="n">
-        <v>245.4849999999997</v>
+        <v>245.4466666666664</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10591,22 +10499,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
+        <v>246.6</v>
+      </c>
+      <c r="C258" t="n">
         <v>246.7</v>
       </c>
-      <c r="C258" t="n">
-        <v>246.8</v>
-      </c>
       <c r="D258" t="n">
-        <v>246.8</v>
+        <v>246.7</v>
       </c>
       <c r="E258" t="n">
-        <v>246.7</v>
+        <v>245.1</v>
       </c>
       <c r="F258" t="n">
-        <v>315.73273282</v>
+        <v>12535.735</v>
       </c>
       <c r="G258" t="n">
-        <v>245.5466666666664</v>
+        <v>245.4849999999997</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10626,7 +10534,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>246.8</v>
+        <v>246.7</v>
       </c>
       <c r="C259" t="n">
         <v>246.8</v>
@@ -10635,13 +10543,13 @@
         <v>246.8</v>
       </c>
       <c r="E259" t="n">
-        <v>246.8</v>
+        <v>246.7</v>
       </c>
       <c r="F259" t="n">
-        <v>3675.1025</v>
+        <v>315.73273282</v>
       </c>
       <c r="G259" t="n">
-        <v>245.6099999999997</v>
+        <v>245.5466666666664</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10673,10 +10581,10 @@
         <v>246.8</v>
       </c>
       <c r="F260" t="n">
-        <v>1075.3225</v>
+        <v>3675.1025</v>
       </c>
       <c r="G260" t="n">
-        <v>245.6499999999997</v>
+        <v>245.6099999999997</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10696,22 +10604,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>246.1</v>
+        <v>246.8</v>
       </c>
       <c r="C261" t="n">
-        <v>246.1</v>
+        <v>246.8</v>
       </c>
       <c r="D261" t="n">
-        <v>246.1</v>
+        <v>246.8</v>
       </c>
       <c r="E261" t="n">
-        <v>246.1</v>
+        <v>246.8</v>
       </c>
       <c r="F261" t="n">
-        <v>5206.6415</v>
+        <v>1075.3225</v>
       </c>
       <c r="G261" t="n">
-        <v>245.678333333333</v>
+        <v>245.6499999999997</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10731,22 +10639,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>245.8</v>
+        <v>246.1</v>
       </c>
       <c r="C262" t="n">
-        <v>246.8</v>
+        <v>246.1</v>
       </c>
       <c r="D262" t="n">
-        <v>246.8</v>
+        <v>246.1</v>
       </c>
       <c r="E262" t="n">
-        <v>245.8</v>
+        <v>246.1</v>
       </c>
       <c r="F262" t="n">
-        <v>1066</v>
+        <v>5206.6415</v>
       </c>
       <c r="G262" t="n">
-        <v>245.718333333333</v>
+        <v>245.678333333333</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10766,22 +10674,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
+        <v>245.8</v>
+      </c>
+      <c r="C263" t="n">
         <v>246.8</v>
       </c>
-      <c r="C263" t="n">
-        <v>246.9</v>
-      </c>
       <c r="D263" t="n">
-        <v>246.9</v>
+        <v>246.8</v>
       </c>
       <c r="E263" t="n">
-        <v>246.8</v>
+        <v>245.8</v>
       </c>
       <c r="F263" t="n">
-        <v>1600</v>
+        <v>1066</v>
       </c>
       <c r="G263" t="n">
-        <v>245.7599999999997</v>
+        <v>245.718333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10804,19 +10712,19 @@
         <v>246.8</v>
       </c>
       <c r="C264" t="n">
-        <v>246.8</v>
+        <v>246.9</v>
       </c>
       <c r="D264" t="n">
-        <v>246.8</v>
+        <v>246.9</v>
       </c>
       <c r="E264" t="n">
         <v>246.8</v>
       </c>
       <c r="F264" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G264" t="n">
-        <v>245.7766666666664</v>
+        <v>245.7599999999997</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10836,22 +10744,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>246.9</v>
+        <v>246.8</v>
       </c>
       <c r="C265" t="n">
-        <v>247</v>
+        <v>246.8</v>
       </c>
       <c r="D265" t="n">
-        <v>247</v>
+        <v>246.8</v>
       </c>
       <c r="E265" t="n">
-        <v>246.9</v>
+        <v>246.8</v>
       </c>
       <c r="F265" t="n">
-        <v>11037.94536718</v>
+        <v>1500</v>
       </c>
       <c r="G265" t="n">
-        <v>245.793333333333</v>
+        <v>245.7766666666664</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10871,22 +10779,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>246.3</v>
+        <v>246.9</v>
       </c>
       <c r="C266" t="n">
-        <v>246.3</v>
+        <v>247</v>
       </c>
       <c r="D266" t="n">
-        <v>246.3</v>
+        <v>247</v>
       </c>
       <c r="E266" t="n">
-        <v>246.3</v>
+        <v>246.9</v>
       </c>
       <c r="F266" t="n">
-        <v>844.5027</v>
+        <v>11037.94536718</v>
       </c>
       <c r="G266" t="n">
-        <v>245.8216666666663</v>
+        <v>245.793333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10906,22 +10814,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>246.9</v>
+        <v>246.3</v>
       </c>
       <c r="C267" t="n">
-        <v>247</v>
+        <v>246.3</v>
       </c>
       <c r="D267" t="n">
-        <v>247</v>
+        <v>246.3</v>
       </c>
       <c r="E267" t="n">
-        <v>246.9</v>
+        <v>246.3</v>
       </c>
       <c r="F267" t="n">
-        <v>1652.0878</v>
+        <v>844.5027</v>
       </c>
       <c r="G267" t="n">
-        <v>245.838333333333</v>
+        <v>245.8216666666663</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10941,7 +10849,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>247</v>
+        <v>246.9</v>
       </c>
       <c r="C268" t="n">
         <v>247</v>
@@ -10950,13 +10858,13 @@
         <v>247</v>
       </c>
       <c r="E268" t="n">
-        <v>247</v>
+        <v>246.9</v>
       </c>
       <c r="F268" t="n">
-        <v>2387.8913</v>
+        <v>1652.0878</v>
       </c>
       <c r="G268" t="n">
-        <v>245.858333333333</v>
+        <v>245.838333333333</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10976,22 +10884,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>247.5</v>
+        <v>247</v>
       </c>
       <c r="C269" t="n">
-        <v>247.7</v>
+        <v>247</v>
       </c>
       <c r="D269" t="n">
-        <v>247.7</v>
+        <v>247</v>
       </c>
       <c r="E269" t="n">
-        <v>247.5</v>
+        <v>247</v>
       </c>
       <c r="F269" t="n">
-        <v>1030</v>
+        <v>2387.8913</v>
       </c>
       <c r="G269" t="n">
-        <v>245.9199999999997</v>
+        <v>245.858333333333</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -11011,22 +10919,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>247.3</v>
+        <v>247.5</v>
       </c>
       <c r="C270" t="n">
-        <v>247.3</v>
+        <v>247.7</v>
       </c>
       <c r="D270" t="n">
-        <v>247.3</v>
+        <v>247.7</v>
       </c>
       <c r="E270" t="n">
-        <v>246.3</v>
+        <v>247.5</v>
       </c>
       <c r="F270" t="n">
-        <v>449.6233</v>
+        <v>1030</v>
       </c>
       <c r="G270" t="n">
-        <v>245.9499999999997</v>
+        <v>245.9199999999997</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -11046,22 +10954,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>247.8</v>
+        <v>247.3</v>
       </c>
       <c r="C271" t="n">
-        <v>247.8</v>
+        <v>247.3</v>
       </c>
       <c r="D271" t="n">
-        <v>247.8</v>
+        <v>247.3</v>
       </c>
       <c r="E271" t="n">
-        <v>247.8</v>
+        <v>246.3</v>
       </c>
       <c r="F271" t="n">
-        <v>20</v>
+        <v>449.6233</v>
       </c>
       <c r="G271" t="n">
-        <v>246.0099999999997</v>
+        <v>245.9499999999997</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -11084,19 +10992,19 @@
         <v>247.8</v>
       </c>
       <c r="C272" t="n">
-        <v>247.9</v>
+        <v>247.8</v>
       </c>
       <c r="D272" t="n">
-        <v>247.9</v>
+        <v>247.8</v>
       </c>
       <c r="E272" t="n">
         <v>247.8</v>
       </c>
       <c r="F272" t="n">
-        <v>1072.125</v>
+        <v>20</v>
       </c>
       <c r="G272" t="n">
-        <v>246.0716666666663</v>
+        <v>246.0099999999997</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -11116,7 +11024,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>247.2</v>
+        <v>247.8</v>
       </c>
       <c r="C273" t="n">
         <v>247.9</v>
@@ -11125,13 +11033,13 @@
         <v>247.9</v>
       </c>
       <c r="E273" t="n">
-        <v>247.2</v>
+        <v>247.8</v>
       </c>
       <c r="F273" t="n">
-        <v>700</v>
+        <v>1072.125</v>
       </c>
       <c r="G273" t="n">
-        <v>246.123333333333</v>
+        <v>246.0716666666663</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -11151,22 +11059,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>247.6</v>
+        <v>247.2</v>
       </c>
       <c r="C274" t="n">
-        <v>247.6</v>
+        <v>247.9</v>
       </c>
       <c r="D274" t="n">
-        <v>247.6</v>
+        <v>247.9</v>
       </c>
       <c r="E274" t="n">
-        <v>247.6</v>
+        <v>247.2</v>
       </c>
       <c r="F274" t="n">
-        <v>511.5999</v>
+        <v>700</v>
       </c>
       <c r="G274" t="n">
-        <v>246.1899999999997</v>
+        <v>246.123333333333</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -11189,19 +11097,19 @@
         <v>247.6</v>
       </c>
       <c r="C275" t="n">
-        <v>248.3</v>
+        <v>247.6</v>
       </c>
       <c r="D275" t="n">
-        <v>248.3</v>
+        <v>247.6</v>
       </c>
       <c r="E275" t="n">
         <v>247.6</v>
       </c>
       <c r="F275" t="n">
-        <v>2875.0751</v>
+        <v>511.5999</v>
       </c>
       <c r="G275" t="n">
-        <v>246.268333333333</v>
+        <v>246.1899999999997</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -11221,22 +11129,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>247.5</v>
+        <v>247.6</v>
       </c>
       <c r="C276" t="n">
-        <v>247.5</v>
+        <v>248.3</v>
       </c>
       <c r="D276" t="n">
-        <v>247.5</v>
+        <v>248.3</v>
       </c>
       <c r="E276" t="n">
-        <v>247.5</v>
+        <v>247.6</v>
       </c>
       <c r="F276" t="n">
-        <v>35.4924</v>
+        <v>2875.0751</v>
       </c>
       <c r="G276" t="n">
-        <v>246.3166666666663</v>
+        <v>246.268333333333</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -11256,22 +11164,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>248.3</v>
+        <v>247.5</v>
       </c>
       <c r="C277" t="n">
-        <v>248.6</v>
+        <v>247.5</v>
       </c>
       <c r="D277" t="n">
-        <v>248.6</v>
+        <v>247.5</v>
       </c>
       <c r="E277" t="n">
-        <v>248.3</v>
+        <v>247.5</v>
       </c>
       <c r="F277" t="n">
-        <v>147.1094</v>
+        <v>35.4924</v>
       </c>
       <c r="G277" t="n">
-        <v>246.383333333333</v>
+        <v>246.3166666666663</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -11291,22 +11199,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
+        <v>248.3</v>
+      </c>
+      <c r="C278" t="n">
         <v>248.6</v>
       </c>
-      <c r="C278" t="n">
-        <v>248.8</v>
-      </c>
       <c r="D278" t="n">
-        <v>248.8</v>
+        <v>248.6</v>
       </c>
       <c r="E278" t="n">
-        <v>248.6</v>
+        <v>248.3</v>
       </c>
       <c r="F278" t="n">
-        <v>8407.5895</v>
+        <v>147.1094</v>
       </c>
       <c r="G278" t="n">
-        <v>246.4499999999996</v>
+        <v>246.383333333333</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -11326,7 +11234,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>248.8</v>
+        <v>248.6</v>
       </c>
       <c r="C279" t="n">
         <v>248.8</v>
@@ -11335,13 +11243,13 @@
         <v>248.8</v>
       </c>
       <c r="E279" t="n">
-        <v>248.8</v>
+        <v>248.6</v>
       </c>
       <c r="F279" t="n">
-        <v>11097.9959</v>
+        <v>8407.5895</v>
       </c>
       <c r="G279" t="n">
-        <v>246.5166666666663</v>
+        <v>246.4499999999996</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -11361,28 +11269,28 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>248.6</v>
+        <v>248.8</v>
       </c>
       <c r="C280" t="n">
-        <v>247.3</v>
+        <v>248.8</v>
       </c>
       <c r="D280" t="n">
-        <v>248.6</v>
+        <v>248.8</v>
       </c>
       <c r="E280" t="n">
-        <v>247.3</v>
+        <v>248.8</v>
       </c>
       <c r="F280" t="n">
-        <v>7316.6081</v>
+        <v>11097.9959</v>
       </c>
       <c r="G280" t="n">
-        <v>246.5716666666663</v>
+        <v>246.5166666666663</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
@@ -11399,25 +11307,25 @@
         <v>248.6</v>
       </c>
       <c r="C281" t="n">
-        <v>248.7</v>
+        <v>247.3</v>
       </c>
       <c r="D281" t="n">
-        <v>248.7</v>
+        <v>248.6</v>
       </c>
       <c r="E281" t="n">
-        <v>248.6</v>
+        <v>247.3</v>
       </c>
       <c r="F281" t="n">
-        <v>1513.9976</v>
+        <v>7316.6081</v>
       </c>
       <c r="G281" t="n">
-        <v>246.6366666666663</v>
+        <v>246.5716666666663</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
@@ -11431,22 +11339,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>247.2</v>
+        <v>248.6</v>
       </c>
       <c r="C282" t="n">
-        <v>248</v>
+        <v>248.7</v>
       </c>
       <c r="D282" t="n">
-        <v>248.1</v>
+        <v>248.7</v>
       </c>
       <c r="E282" t="n">
-        <v>247.1</v>
+        <v>248.6</v>
       </c>
       <c r="F282" t="n">
-        <v>5279.1069</v>
+        <v>1513.9976</v>
       </c>
       <c r="G282" t="n">
-        <v>246.6899999999997</v>
+        <v>246.6366666666663</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -11466,22 +11374,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>248</v>
+        <v>247.2</v>
       </c>
       <c r="C283" t="n">
         <v>248</v>
       </c>
       <c r="D283" t="n">
-        <v>248</v>
+        <v>248.1</v>
       </c>
       <c r="E283" t="n">
-        <v>248</v>
+        <v>247.1</v>
       </c>
       <c r="F283" t="n">
-        <v>2560.0805</v>
+        <v>5279.1069</v>
       </c>
       <c r="G283" t="n">
-        <v>246.743333333333</v>
+        <v>246.6899999999997</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -11501,22 +11409,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>247.9</v>
+        <v>248</v>
       </c>
       <c r="C284" t="n">
-        <v>247.9</v>
+        <v>248</v>
       </c>
       <c r="D284" t="n">
-        <v>247.9</v>
+        <v>248</v>
       </c>
       <c r="E284" t="n">
-        <v>247.9</v>
+        <v>248</v>
       </c>
       <c r="F284" t="n">
-        <v>882.3779</v>
+        <v>2560.0805</v>
       </c>
       <c r="G284" t="n">
-        <v>246.7949999999997</v>
+        <v>246.743333333333</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -11548,10 +11456,10 @@
         <v>247.9</v>
       </c>
       <c r="F285" t="n">
-        <v>387.6221</v>
+        <v>882.3779</v>
       </c>
       <c r="G285" t="n">
-        <v>246.8466666666664</v>
+        <v>246.7949999999997</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -11583,10 +11491,10 @@
         <v>247.9</v>
       </c>
       <c r="F286" t="n">
-        <v>9.4459</v>
+        <v>387.6221</v>
       </c>
       <c r="G286" t="n">
-        <v>246.898333333333</v>
+        <v>246.8466666666664</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -11618,10 +11526,10 @@
         <v>247.9</v>
       </c>
       <c r="F287" t="n">
-        <v>3707.9111</v>
+        <v>9.4459</v>
       </c>
       <c r="G287" t="n">
-        <v>246.9499999999997</v>
+        <v>246.898333333333</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -11644,19 +11552,19 @@
         <v>247.9</v>
       </c>
       <c r="C288" t="n">
-        <v>248</v>
+        <v>247.9</v>
       </c>
       <c r="D288" t="n">
-        <v>248</v>
+        <v>247.9</v>
       </c>
       <c r="E288" t="n">
         <v>247.9</v>
       </c>
       <c r="F288" t="n">
-        <v>4306.0389</v>
+        <v>3707.9111</v>
       </c>
       <c r="G288" t="n">
-        <v>246.9849999999997</v>
+        <v>246.9499999999997</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -11676,7 +11584,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>248</v>
+        <v>247.9</v>
       </c>
       <c r="C289" t="n">
         <v>248</v>
@@ -11685,13 +11593,13 @@
         <v>248</v>
       </c>
       <c r="E289" t="n">
-        <v>247.5</v>
+        <v>247.9</v>
       </c>
       <c r="F289" t="n">
-        <v>7392.7071</v>
+        <v>4306.0389</v>
       </c>
       <c r="G289" t="n">
-        <v>247.0199999999997</v>
+        <v>246.9849999999997</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -11720,13 +11628,13 @@
         <v>248</v>
       </c>
       <c r="E290" t="n">
-        <v>248</v>
+        <v>247.5</v>
       </c>
       <c r="F290" t="n">
-        <v>364.2092</v>
+        <v>7392.7071</v>
       </c>
       <c r="G290" t="n">
-        <v>247.0566666666664</v>
+        <v>247.0199999999997</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -11749,19 +11657,19 @@
         <v>248</v>
       </c>
       <c r="C291" t="n">
-        <v>248.7</v>
+        <v>248</v>
       </c>
       <c r="D291" t="n">
-        <v>248.7</v>
+        <v>248</v>
       </c>
       <c r="E291" t="n">
         <v>248</v>
       </c>
       <c r="F291" t="n">
-        <v>1500</v>
+        <v>364.2092</v>
       </c>
       <c r="G291" t="n">
-        <v>247.1049999999997</v>
+        <v>247.0566666666664</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11781,7 +11689,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>248.7</v>
+        <v>248</v>
       </c>
       <c r="C292" t="n">
         <v>248.7</v>
@@ -11790,13 +11698,13 @@
         <v>248.7</v>
       </c>
       <c r="E292" t="n">
-        <v>248.7</v>
+        <v>248</v>
       </c>
       <c r="F292" t="n">
-        <v>236</v>
+        <v>1500</v>
       </c>
       <c r="G292" t="n">
-        <v>247.1533333333331</v>
+        <v>247.1049999999997</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11819,19 +11727,19 @@
         <v>248.7</v>
       </c>
       <c r="C293" t="n">
-        <v>248.9</v>
+        <v>248.7</v>
       </c>
       <c r="D293" t="n">
-        <v>248.9</v>
+        <v>248.7</v>
       </c>
       <c r="E293" t="n">
         <v>248.7</v>
       </c>
       <c r="F293" t="n">
-        <v>1898.5223</v>
+        <v>236</v>
       </c>
       <c r="G293" t="n">
-        <v>247.2033333333331</v>
+        <v>247.1533333333331</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11851,22 +11759,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>248.8</v>
+        <v>248.7</v>
       </c>
       <c r="C294" t="n">
-        <v>247.3</v>
+        <v>248.9</v>
       </c>
       <c r="D294" t="n">
         <v>248.9</v>
       </c>
       <c r="E294" t="n">
-        <v>247.3</v>
+        <v>248.7</v>
       </c>
       <c r="F294" t="n">
-        <v>4086.5917</v>
+        <v>1898.5223</v>
       </c>
       <c r="G294" t="n">
-        <v>247.2166666666664</v>
+        <v>247.2033333333331</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11886,22 +11794,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
+        <v>248.8</v>
+      </c>
+      <c r="C295" t="n">
         <v>247.3</v>
       </c>
-      <c r="C295" t="n">
-        <v>248.1</v>
-      </c>
       <c r="D295" t="n">
-        <v>248.1</v>
+        <v>248.9</v>
       </c>
       <c r="E295" t="n">
         <v>247.3</v>
       </c>
       <c r="F295" t="n">
-        <v>6673.8917</v>
+        <v>4086.5917</v>
       </c>
       <c r="G295" t="n">
-        <v>247.2383333333331</v>
+        <v>247.2166666666664</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11921,22 +11829,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
+        <v>247.3</v>
+      </c>
+      <c r="C296" t="n">
         <v>248.1</v>
       </c>
-      <c r="C296" t="n">
-        <v>248.9</v>
-      </c>
       <c r="D296" t="n">
-        <v>248.9</v>
+        <v>248.1</v>
       </c>
       <c r="E296" t="n">
-        <v>248.1</v>
+        <v>247.3</v>
       </c>
       <c r="F296" t="n">
-        <v>3</v>
+        <v>6673.8917</v>
       </c>
       <c r="G296" t="n">
-        <v>247.2749999999997</v>
+        <v>247.2383333333331</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11959,19 +11867,19 @@
         <v>248.1</v>
       </c>
       <c r="C297" t="n">
-        <v>248.1</v>
+        <v>248.9</v>
       </c>
       <c r="D297" t="n">
-        <v>248.1</v>
+        <v>248.9</v>
       </c>
       <c r="E297" t="n">
         <v>248.1</v>
       </c>
       <c r="F297" t="n">
-        <v>179.63</v>
+        <v>3</v>
       </c>
       <c r="G297" t="n">
-        <v>247.2983333333331</v>
+        <v>247.2749999999997</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11994,19 +11902,19 @@
         <v>248.1</v>
       </c>
       <c r="C298" t="n">
-        <v>249</v>
+        <v>248.1</v>
       </c>
       <c r="D298" t="n">
-        <v>249</v>
+        <v>248.1</v>
       </c>
       <c r="E298" t="n">
         <v>248.1</v>
       </c>
       <c r="F298" t="n">
-        <v>8</v>
+        <v>179.63</v>
       </c>
       <c r="G298" t="n">
-        <v>247.3349999999998</v>
+        <v>247.2983333333331</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -12029,19 +11937,19 @@
         <v>248.1</v>
       </c>
       <c r="C299" t="n">
-        <v>248.1</v>
+        <v>249</v>
       </c>
       <c r="D299" t="n">
-        <v>248.1</v>
+        <v>249</v>
       </c>
       <c r="E299" t="n">
         <v>248.1</v>
       </c>
       <c r="F299" t="n">
-        <v>187.4</v>
+        <v>8</v>
       </c>
       <c r="G299" t="n">
-        <v>247.3566666666665</v>
+        <v>247.3349999999998</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -12061,22 +11969,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>248.9</v>
+        <v>248.1</v>
       </c>
       <c r="C300" t="n">
-        <v>249</v>
+        <v>248.1</v>
       </c>
       <c r="D300" t="n">
-        <v>249</v>
+        <v>248.1</v>
       </c>
       <c r="E300" t="n">
-        <v>248.9</v>
+        <v>248.1</v>
       </c>
       <c r="F300" t="n">
-        <v>29</v>
+        <v>187.4</v>
       </c>
       <c r="G300" t="n">
-        <v>247.3983333333331</v>
+        <v>247.3566666666665</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -12096,22 +12004,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
+        <v>248.9</v>
+      </c>
+      <c r="C301" t="n">
         <v>249</v>
       </c>
-      <c r="C301" t="n">
-        <v>249.1</v>
-      </c>
       <c r="D301" t="n">
-        <v>249.1</v>
+        <v>249</v>
       </c>
       <c r="E301" t="n">
-        <v>249</v>
+        <v>248.9</v>
       </c>
       <c r="F301" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G301" t="n">
-        <v>247.4449999999998</v>
+        <v>247.3983333333331</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -12134,19 +12042,19 @@
         <v>249</v>
       </c>
       <c r="C302" t="n">
-        <v>249</v>
+        <v>249.1</v>
       </c>
       <c r="D302" t="n">
-        <v>249</v>
+        <v>249.1</v>
       </c>
       <c r="E302" t="n">
         <v>249</v>
       </c>
       <c r="F302" t="n">
-        <v>1025.8574</v>
+        <v>44</v>
       </c>
       <c r="G302" t="n">
-        <v>247.4933333333331</v>
+        <v>247.4449999999998</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -12166,22 +12074,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>248.9</v>
+        <v>249</v>
       </c>
       <c r="C303" t="n">
-        <v>248.9</v>
+        <v>249</v>
       </c>
       <c r="D303" t="n">
-        <v>248.9</v>
+        <v>249</v>
       </c>
       <c r="E303" t="n">
-        <v>248.9</v>
+        <v>249</v>
       </c>
       <c r="F303" t="n">
-        <v>88</v>
+        <v>1025.8574</v>
       </c>
       <c r="G303" t="n">
-        <v>247.5416666666665</v>
+        <v>247.4933333333331</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -12213,10 +12121,10 @@
         <v>248.9</v>
       </c>
       <c r="F304" t="n">
-        <v>200.3816</v>
+        <v>88</v>
       </c>
       <c r="G304" t="n">
-        <v>247.5899999999998</v>
+        <v>247.5416666666665</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -12248,10 +12156,10 @@
         <v>248.9</v>
       </c>
       <c r="F305" t="n">
-        <v>2.0089</v>
+        <v>200.3816</v>
       </c>
       <c r="G305" t="n">
-        <v>247.6399999999998</v>
+        <v>247.5899999999998</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -12271,22 +12179,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>248.5</v>
+        <v>248.9</v>
       </c>
       <c r="C306" t="n">
-        <v>248</v>
+        <v>248.9</v>
       </c>
       <c r="D306" t="n">
-        <v>248.5</v>
+        <v>248.9</v>
       </c>
       <c r="E306" t="n">
-        <v>248</v>
+        <v>248.9</v>
       </c>
       <c r="F306" t="n">
-        <v>1747.2316</v>
+        <v>2.0089</v>
       </c>
       <c r="G306" t="n">
-        <v>247.6749999999998</v>
+        <v>247.6399999999998</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -12309,19 +12217,19 @@
         <v>248.5</v>
       </c>
       <c r="C307" t="n">
-        <v>248.3</v>
+        <v>248</v>
       </c>
       <c r="D307" t="n">
         <v>248.5</v>
       </c>
       <c r="E307" t="n">
-        <v>247.1</v>
+        <v>248</v>
       </c>
       <c r="F307" t="n">
-        <v>4037.2041</v>
+        <v>1747.2316</v>
       </c>
       <c r="G307" t="n">
-        <v>247.7166666666664</v>
+        <v>247.6749999999998</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -12341,22 +12249,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>248.3</v>
+        <v>248.5</v>
       </c>
       <c r="C308" t="n">
         <v>248.3</v>
       </c>
       <c r="D308" t="n">
-        <v>248.3</v>
+        <v>248.5</v>
       </c>
       <c r="E308" t="n">
-        <v>248.3</v>
+        <v>247.1</v>
       </c>
       <c r="F308" t="n">
-        <v>210.8658</v>
+        <v>4037.2041</v>
       </c>
       <c r="G308" t="n">
-        <v>247.7466666666664</v>
+        <v>247.7166666666664</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -12388,10 +12296,10 @@
         <v>248.3</v>
       </c>
       <c r="F309" t="n">
-        <v>209.3512</v>
+        <v>210.8658</v>
       </c>
       <c r="G309" t="n">
-        <v>247.7766666666664</v>
+        <v>247.7466666666664</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -12411,22 +12319,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>248</v>
+        <v>248.3</v>
       </c>
       <c r="C310" t="n">
-        <v>248</v>
+        <v>248.3</v>
       </c>
       <c r="D310" t="n">
-        <v>248</v>
+        <v>248.3</v>
       </c>
       <c r="E310" t="n">
-        <v>248</v>
+        <v>248.3</v>
       </c>
       <c r="F310" t="n">
-        <v>216</v>
+        <v>209.3512</v>
       </c>
       <c r="G310" t="n">
-        <v>247.7966666666665</v>
+        <v>247.7766666666664</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -12446,22 +12354,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C311" t="n">
-        <v>248.5</v>
+        <v>248</v>
       </c>
       <c r="D311" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E311" t="n">
-        <v>248.5</v>
+        <v>248</v>
       </c>
       <c r="F311" t="n">
-        <v>1500.4178</v>
+        <v>216</v>
       </c>
       <c r="G311" t="n">
-        <v>247.8283333333331</v>
+        <v>247.7966666666665</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -12493,10 +12401,10 @@
         <v>248.5</v>
       </c>
       <c r="F312" t="n">
-        <v>11837.7291</v>
+        <v>1500.4178</v>
       </c>
       <c r="G312" t="n">
-        <v>247.8566666666665</v>
+        <v>247.8283333333331</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -12519,19 +12427,19 @@
         <v>249</v>
       </c>
       <c r="C313" t="n">
-        <v>249</v>
+        <v>248.5</v>
       </c>
       <c r="D313" t="n">
         <v>249</v>
       </c>
       <c r="E313" t="n">
-        <v>249</v>
+        <v>248.5</v>
       </c>
       <c r="F313" t="n">
-        <v>90.6489</v>
+        <v>11837.7291</v>
       </c>
       <c r="G313" t="n">
-        <v>247.8933333333331</v>
+        <v>247.8566666666665</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -12551,22 +12459,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>248.9</v>
+        <v>249</v>
       </c>
       <c r="C314" t="n">
-        <v>248.9</v>
+        <v>249</v>
       </c>
       <c r="D314" t="n">
-        <v>248.9</v>
+        <v>249</v>
       </c>
       <c r="E314" t="n">
-        <v>248.9</v>
+        <v>249</v>
       </c>
       <c r="F314" t="n">
-        <v>88</v>
+        <v>90.6489</v>
       </c>
       <c r="G314" t="n">
-        <v>247.9283333333331</v>
+        <v>247.8933333333331</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -12586,22 +12494,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>248.5</v>
+        <v>248.9</v>
       </c>
       <c r="C315" t="n">
-        <v>248.5</v>
+        <v>248.9</v>
       </c>
       <c r="D315" t="n">
-        <v>248.5</v>
+        <v>248.9</v>
       </c>
       <c r="E315" t="n">
-        <v>248.5</v>
+        <v>248.9</v>
       </c>
       <c r="F315" t="n">
         <v>88</v>
       </c>
       <c r="G315" t="n">
-        <v>247.9566666666665</v>
+        <v>247.9283333333331</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -12633,10 +12541,10 @@
         <v>248.5</v>
       </c>
       <c r="F316" t="n">
-        <v>9226.094499999999</v>
+        <v>88</v>
       </c>
       <c r="G316" t="n">
-        <v>247.9866666666665</v>
+        <v>247.9566666666665</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -12659,19 +12567,19 @@
         <v>248.5</v>
       </c>
       <c r="C317" t="n">
-        <v>249.1</v>
+        <v>248.5</v>
       </c>
       <c r="D317" t="n">
-        <v>249.1</v>
+        <v>248.5</v>
       </c>
       <c r="E317" t="n">
         <v>248.5</v>
       </c>
       <c r="F317" t="n">
-        <v>158</v>
+        <v>9226.094499999999</v>
       </c>
       <c r="G317" t="n">
-        <v>248.0266666666665</v>
+        <v>247.9866666666665</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -12691,22 +12599,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>248.6</v>
+        <v>248.5</v>
       </c>
       <c r="C318" t="n">
-        <v>248.6</v>
+        <v>249.1</v>
       </c>
       <c r="D318" t="n">
-        <v>248.6</v>
+        <v>249.1</v>
       </c>
       <c r="E318" t="n">
-        <v>248.6</v>
+        <v>248.5</v>
       </c>
       <c r="F318" t="n">
-        <v>3986</v>
+        <v>158</v>
       </c>
       <c r="G318" t="n">
-        <v>248.0566666666665</v>
+        <v>248.0266666666665</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -12729,19 +12637,19 @@
         <v>248.6</v>
       </c>
       <c r="C319" t="n">
-        <v>249</v>
+        <v>248.6</v>
       </c>
       <c r="D319" t="n">
-        <v>249</v>
+        <v>248.6</v>
       </c>
       <c r="E319" t="n">
         <v>248.6</v>
       </c>
       <c r="F319" t="n">
-        <v>5102.1925</v>
+        <v>3986</v>
       </c>
       <c r="G319" t="n">
-        <v>248.0933333333332</v>
+        <v>248.0566666666665</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -12756,6 +12664,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="C320" t="n">
+        <v>249</v>
+      </c>
+      <c r="D320" t="n">
+        <v>249</v>
+      </c>
+      <c r="E320" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="F320" t="n">
+        <v>5102.1925</v>
+      </c>
+      <c r="G320" t="n">
+        <v>248.0933333333332</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-13 BackTest MTL.xlsx
+++ b/BackTest/2020-01-13 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-7222.505059039999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-8969.930659039999</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-8969.930659039999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-8969.930659039999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-9511.93055904</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-9511.93055904</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-9511.93055904</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-9514.93055904</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-9514.93055904</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-30982.99178206</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-40985.64958206</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-45887.61888206</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-67255.88748206</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -4048,11 +4048,17 @@
         <v>-161487.06848206</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4091,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4124,17 @@
         <v>-159994.28348206</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>243.4</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4163,17 @@
         <v>-159994.28348206</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>243</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4202,17 @@
         <v>-159994.28348206</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>243</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4241,17 @@
         <v>-159994.28348206</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>243</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4280,17 @@
         <v>-159994.28348206</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>243</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4323,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4360,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4397,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4434,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4471,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4504,17 @@
         <v>-164553.39258206</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>243</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4543,17 @@
         <v>-164553.39258206</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4582,17 @@
         <v>-165148.39258206</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4621,17 @@
         <v>-165145.54258206</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>243</v>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4660,17 @@
         <v>-166500.54258206</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>244.9</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4699,17 @@
         <v>-166500.54258206</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>243</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4738,17 @@
         <v>-166500.54258206</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>243</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4781,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4814,17 @@
         <v>-166500.54258206</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>243</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4853,17 @@
         <v>-165917.25388206</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>243</v>
+      </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4892,17 @@
         <v>-165917.25388206</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4931,17 @@
         <v>-165917.25388206</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4970,17 @@
         <v>-165917.25388206</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5009,17 @@
         <v>-165917.25388206</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5048,17 @@
         <v>-165912.75388206</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5091,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5128,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5165,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5202,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5239,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5276,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5313,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5350,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5387,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5420,17 @@
         <v>-176656.43568206</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>243</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5459,17 @@
         <v>-176656.43568206</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>242.4</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5498,17 @@
         <v>-176656.43568206</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>242.4</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5537,17 @@
         <v>-173256.43568206</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>242.4</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5576,17 @@
         <v>-181923.94308206</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>243</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5615,17 @@
         <v>-179448.68718206</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>242.4</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5654,17 @@
         <v>-179448.68718206</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>242.9</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5693,17 @@
         <v>-174419.68718206</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>242.9</v>
+      </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5736,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5769,17 @@
         <v>-174419.68718206</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5812,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5845,17 @@
         <v>-176970.0471820601</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +5888,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +5925,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +5962,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5995,17 @@
         <v>-186640.71308206</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6038,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6071,17 @@
         <v>-186640.71308206</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>243</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6110,17 @@
         <v>-186368.71308206</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>243</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6149,17 @@
         <v>-186368.71308206</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6188,17 @@
         <v>-189275.9730820601</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6231,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6268,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6305,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6342,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6375,17 @@
         <v>-188565.9730820601</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6414,17 @@
         <v>-193377.3976820601</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6457,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6490,17 @@
         <v>-193377.3976820601</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6529,17 @@
         <v>-193377.3976820601</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6572,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6605,17 @@
         <v>-192918.3976820601</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6644,17 @@
         <v>-192918.3976820601</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6683,17 @@
         <v>-192918.3976820601</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6722,17 @@
         <v>-192918.3976820601</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6761,17 @@
         <v>-188495.8976820601</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6800,17 @@
         <v>-189895.8976820601</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>244.7</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6839,17 @@
         <v>-189795.8976820601</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6878,17 @@
         <v>-189795.8976820601</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6917,17 @@
         <v>-188881.7941820601</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6960,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6997,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +7034,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +7067,17 @@
         <v>-189581.7941820601</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +7106,17 @@
         <v>-189581.7941820601</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +7145,17 @@
         <v>-189577.2941820601</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7188,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7225,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7262,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7299,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7336,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7373,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7410,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7447,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7484,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7521,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7558,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7595,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7632,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7669,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7702,17 @@
         <v>-186456.21718206</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>243.4</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7745,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7782,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7815,17 @@
         <v>-186456.21718206</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>243.4</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7858,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7895,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7932,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7965,17 @@
         <v>-189205.79698206</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +8004,17 @@
         <v>-188086.57278206</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +8043,17 @@
         <v>-188086.57278206</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +8082,17 @@
         <v>-188086.57278206</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +8121,17 @@
         <v>-188086.57278206</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +8164,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8201,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8238,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8275,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8312,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8349,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +8382,17 @@
         <v>-191930.58678206</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>243.4</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8425,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8458,17 @@
         <v>-191930.58678206</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8501,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8538,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8571,17 @@
         <v>-211630.82798206</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8614,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8651,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8688,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8725,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8758,17 @@
         <v>-211630.82798206</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>243</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,15 +8797,17 @@
         <v>-211630.82798206</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>243</v>
       </c>
-      <c r="J236" t="n">
-        <v>243</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,15 +8836,15 @@
         <v>-211630.82798206</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>243</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>243</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L237" t="n">
@@ -8249,15 +8875,15 @@
         <v>-211233.40478206</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>243</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>243</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L238" t="n">
@@ -8288,11 +8914,17 @@
         <v>-212074.40478206</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8321,11 +8953,17 @@
         <v>-212074.40478206</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>243</v>
+      </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8354,11 +8992,17 @@
         <v>-212011.42478206</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>243</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8387,11 +9031,17 @@
         <v>-212011.42478206</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8420,15 +9070,17 @@
         <v>-211417.96888206</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>243.1</v>
       </c>
-      <c r="J243" t="n">
-        <v>243.1</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8457,15 +9109,15 @@
         <v>-211417.96888206</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>243.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L244" t="n">
@@ -8499,12 +9151,10 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L245" t="n">
@@ -8539,7 +9189,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8568,11 +9222,17 @@
         <v>-211854.96888206</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8601,11 +9261,17 @@
         <v>-211854.96888206</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8634,11 +9300,17 @@
         <v>-211854.96888206</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8667,11 +9339,17 @@
         <v>-211854.96888206</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8700,11 +9378,17 @@
         <v>-211854.96888206</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8733,15 +9417,17 @@
         <v>-211854.96888206</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>243.1</v>
       </c>
-      <c r="J252" t="n">
-        <v>243.1</v>
-      </c>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8770,17 +9456,15 @@
         <v>-211843.93298206</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>243.1</v>
       </c>
-      <c r="J253" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L253" t="n">
@@ -8811,14 +9495,12 @@
         <v>-211843.93298206</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>244.4</v>
       </c>
-      <c r="J254" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8852,12 +9534,12 @@
         <v>-212259.2683820601</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>243.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8891,12 +9573,12 @@
         <v>-212257.2224820601</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
         <v>243.1</v>
       </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8930,12 +9612,12 @@
         <v>-212782.2224820601</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>243.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8969,12 +9651,12 @@
         <v>-234304.7748820601</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
         <v>243.1</v>
       </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9011,9 +9693,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9050,9 +9730,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9089,9 +9767,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9128,9 +9804,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9167,9 +9841,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9206,9 +9878,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9245,9 +9915,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9284,9 +9952,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9323,9 +9989,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9362,9 +10026,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9401,9 +10063,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9440,9 +10100,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9479,9 +10137,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9518,9 +10174,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9557,9 +10211,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9593,12 +10245,12 @@
         <v>-231833.2775820601</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>243.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9632,12 +10284,12 @@
         <v>-231823.0456820601</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>243.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9671,12 +10323,12 @@
         <v>-231823.0456820601</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>243.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>244.6</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9713,9 +10365,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9752,9 +10402,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9791,9 +10439,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9830,9 +10476,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9869,9 +10513,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9908,9 +10550,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9947,9 +10587,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9986,9 +10624,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10025,9 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10064,9 +10698,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10103,9 +10735,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10142,9 +10772,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10181,9 +10809,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10220,9 +10846,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10259,9 +10883,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10298,9 +10920,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10337,9 +10957,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10376,9 +10994,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10415,9 +11031,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10454,9 +11068,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10493,9 +11105,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10532,9 +11142,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10571,9 +11179,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10610,9 +11216,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10649,9 +11253,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10688,9 +11290,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10727,9 +11327,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10766,9 +11364,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10805,9 +11401,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10844,9 +11438,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10883,9 +11475,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10922,9 +11512,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10961,9 +11549,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11000,9 +11586,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11039,9 +11623,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11078,9 +11660,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11117,9 +11697,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11156,9 +11734,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11195,9 +11771,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11234,9 +11808,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11273,9 +11845,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11312,9 +11882,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11351,9 +11919,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11390,9 +11956,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11429,9 +11993,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11468,9 +12030,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11507,9 +12067,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11546,9 +12104,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11585,9 +12141,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11624,9 +12178,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11663,9 +12215,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11702,9 +12252,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11741,9 +12289,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11780,9 +12326,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11816,19 +12360,17 @@
         <v>-222950.8583820601</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L331" t="n">
-        <v>1.014744960921432</v>
+        <v>1</v>
       </c>
       <c r="M331" t="inlineStr"/>
     </row>
@@ -11855,11 +12397,15 @@
         <v>-222950.8583820601</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11888,11 +12434,15 @@
         <v>-223462.4582820601</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11921,11 +12471,15 @@
         <v>-220587.3831820601</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11954,11 +12508,15 @@
         <v>-220622.8755820601</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11987,11 +12545,15 @@
         <v>-220475.7661820601</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12020,11 +12582,15 @@
         <v>-212068.1766820601</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12053,11 +12619,15 @@
         <v>-212068.1766820601</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12086,11 +12656,15 @@
         <v>-219384.7847820601</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12119,11 +12693,15 @@
         <v>-217870.7871820601</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12152,11 +12730,15 @@
         <v>-223149.8940820601</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12185,11 +12767,15 @@
         <v>-223149.8940820601</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12218,11 +12804,15 @@
         <v>-224032.2719820601</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12255,7 +12845,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12288,7 +12882,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12321,7 +12919,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12354,7 +12956,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12387,7 +12993,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12420,7 +13030,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12453,7 +13067,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12486,7 +13104,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12519,7 +13141,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12552,7 +13178,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12585,7 +13215,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12614,11 +13248,15 @@
         <v>-213737.4107820601</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12647,11 +13285,15 @@
         <v>-213917.0407820601</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12680,11 +13322,15 @@
         <v>-213909.0407820601</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12717,7 +13363,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12750,7 +13400,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12783,7 +13437,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12816,7 +13474,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12849,7 +13511,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12882,7 +13548,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12911,11 +13581,15 @@
         <v>-215137.2981820601</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12948,7 +13622,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12981,7 +13659,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13014,7 +13696,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13047,7 +13733,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13080,7 +13770,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13113,7 +13807,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13146,7 +13844,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13179,7 +13881,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13212,7 +13918,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13245,7 +13955,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13278,7 +13992,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13311,7 +14029,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13344,7 +14066,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13377,7 +14103,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13410,7 +14140,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13443,7 +14177,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13476,7 +14214,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13509,7 +14251,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13542,7 +14288,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13575,7 +14325,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13608,7 +14362,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13641,7 +14399,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13674,7 +14436,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13707,13 +14473,17 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
       <c r="M388" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest MTL.xlsx
+++ b/BackTest/2020-01-13 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>-7222.505059039999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-8969.930659039999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-8969.930659039999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-8969.930659039999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-9511.93055904</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-9511.93055904</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-9511.93055904</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-14316.93055904</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-15044.93055904</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-30982.99178206</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -5434,11 +5434,17 @@
         <v>-179448.68718206</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>242.9</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5477,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5514,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5551,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5588,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5625,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +5662,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +5699,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +5736,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +5773,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +5810,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +5847,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +5884,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +5921,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +5954,17 @@
         <v>-189275.9730820601</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +5997,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6034,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6071,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6108,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6145,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6182,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6219,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6256,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6289,17 @@
         <v>-193377.3976820601</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6332,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6369,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6406,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6439,17 @@
         <v>-192918.3976820601</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6478,17 @@
         <v>-192918.3976820601</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6517,17 @@
         <v>-188495.8976820601</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6560,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6597,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6630,17 @@
         <v>-189795.8976820601</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6669,17 @@
         <v>-188881.7941820601</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6712,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6749,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +6786,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +6823,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +6860,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +6897,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6934,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +6971,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7008,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7045,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7082,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7119,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7156,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7193,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7230,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7267,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7304,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7341,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7378,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7415,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7452,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7489,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7526,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7563,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7600,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7637,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7674,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7711,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7748,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7781,17 @@
         <v>-188086.57278206</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7820,17 @@
         <v>-188086.57278206</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7859,17 @@
         <v>-188086.57278206</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7902,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7939,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7976,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8013,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8050,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8087,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8124,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8161,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8198,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8235,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8272,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8309,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8346,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8383,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8420,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8457,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8494,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8178,10 +8532,12 @@
       <c r="I236" t="n">
         <v>243</v>
       </c>
-      <c r="J236" t="n">
-        <v>243</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8215,12 +8571,10 @@
       <c r="I237" t="n">
         <v>243</v>
       </c>
-      <c r="J237" t="n">
-        <v>243</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L237" t="n">
@@ -8256,12 +8610,10 @@
       <c r="I238" t="n">
         <v>243</v>
       </c>
-      <c r="J238" t="n">
-        <v>243</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L238" t="n">
@@ -8297,10 +8649,12 @@
       <c r="I239" t="n">
         <v>243.3</v>
       </c>
-      <c r="J239" t="n">
-        <v>243.3</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8334,12 +8688,10 @@
       <c r="I240" t="n">
         <v>243</v>
       </c>
-      <c r="J240" t="n">
-        <v>243.3</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -8375,12 +8727,10 @@
       <c r="I241" t="n">
         <v>243</v>
       </c>
-      <c r="J241" t="n">
-        <v>243.3</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
@@ -8416,10 +8766,12 @@
       <c r="I242" t="n">
         <v>243.1</v>
       </c>
-      <c r="J242" t="n">
-        <v>243.1</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8453,12 +8805,10 @@
       <c r="I243" t="n">
         <v>243.1</v>
       </c>
-      <c r="J243" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L243" t="n">
@@ -8489,15 +8839,15 @@
         <v>-211417.96888206</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>243.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L244" t="n">
@@ -8532,7 +8882,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8566,10 +8920,12 @@
       <c r="I246" t="n">
         <v>243.1</v>
       </c>
-      <c r="J246" t="n">
-        <v>243.1</v>
-      </c>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8598,15 +8954,15 @@
         <v>-211854.96888206</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
         <v>243.1</v>
       </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L247" t="n">
@@ -8642,12 +8998,10 @@
       <c r="I248" t="n">
         <v>243.1</v>
       </c>
-      <c r="J248" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L248" t="n">
@@ -8678,11 +9032,17 @@
         <v>-211854.96888206</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8716,10 +9076,12 @@
       <c r="I250" t="n">
         <v>243.1</v>
       </c>
-      <c r="J250" t="n">
-        <v>243.1</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8753,12 +9115,10 @@
       <c r="I251" t="n">
         <v>243.1</v>
       </c>
-      <c r="J251" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
@@ -8794,12 +9154,10 @@
       <c r="I252" t="n">
         <v>243.1</v>
       </c>
-      <c r="J252" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L252" t="n">
@@ -8835,12 +9193,10 @@
       <c r="I253" t="n">
         <v>243.1</v>
       </c>
-      <c r="J253" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L253" t="n">
@@ -8876,9 +9232,7 @@
       <c r="I254" t="n">
         <v>244.4</v>
       </c>
-      <c r="J254" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8912,12 +9266,12 @@
         <v>-212259.2683820601</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>243.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8951,12 +9305,12 @@
         <v>-212257.2224820601</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
         <v>243.1</v>
       </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8990,12 +9344,12 @@
         <v>-212782.2224820601</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>243.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9029,12 +9383,12 @@
         <v>-234304.7748820601</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
         <v>243.1</v>
       </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9068,12 +9422,12 @@
         <v>-234302.7199820601</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>243.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>243</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9110,9 +9464,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9149,9 +9501,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9188,9 +9538,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9227,9 +9575,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9266,9 +9612,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9305,9 +9649,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9344,9 +9686,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9383,9 +9723,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9422,9 +9760,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9461,9 +9797,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9500,9 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9539,9 +9871,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9578,9 +9908,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9617,9 +9945,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9656,9 +9982,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9695,9 +10019,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9734,9 +10056,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9773,9 +10093,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9812,9 +10130,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9851,9 +10167,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9890,9 +10204,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9929,9 +10241,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9968,9 +10278,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10007,9 +10315,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10046,9 +10352,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10085,9 +10389,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10121,12 +10423,12 @@
         <v>-233335.1280820601</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>243.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>244.8</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10163,9 +10465,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10202,9 +10502,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10238,19 +10536,17 @@
         <v>-233778.2624820601</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>243.1</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L289" t="n">
-        <v>1.006106540518305</v>
+        <v>1</v>
       </c>
       <c r="M289" t="inlineStr"/>
     </row>
@@ -10281,7 +10577,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10310,11 +10610,15 @@
         <v>-233778.2624820601</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10343,11 +10647,15 @@
         <v>-233731.7624820601</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10380,7 +10688,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10413,7 +10725,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10442,11 +10758,15 @@
         <v>-232665.6751820601</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10475,11 +10795,15 @@
         <v>-232665.6751820601</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10508,11 +10832,15 @@
         <v>-232025.6751820601</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10541,11 +10869,15 @@
         <v>-232025.6751820601</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10574,11 +10906,15 @@
         <v>-232097.6751820601</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10607,11 +10943,15 @@
         <v>-232133.6751820601</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10640,11 +10980,15 @@
         <v>-232169.6751820601</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10673,11 +11017,15 @@
         <v>-233502.6351820601</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10706,11 +11054,15 @@
         <v>-233502.6351820601</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10739,11 +11091,15 @@
         <v>-233716.3438820601</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10776,7 +11132,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10805,11 +11165,15 @@
         <v>-235135.4438820601</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10842,7 +11206,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10875,7 +11243,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10908,7 +11280,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10941,7 +11317,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10974,7 +11354,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11007,7 +11391,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11040,7 +11428,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11073,7 +11465,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11106,7 +11502,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11139,7 +11539,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11172,7 +11576,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11205,7 +11613,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11238,7 +11650,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11271,7 +11687,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11304,7 +11724,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11333,11 +11757,15 @@
         <v>-234968.8905492401</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11366,11 +11794,15 @@
         <v>-236468.8905492401</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11403,7 +11835,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11436,7 +11872,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11469,7 +11909,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11502,7 +11946,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11535,7 +11983,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11568,7 +12020,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11601,7 +12057,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11634,7 +12094,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11667,7 +12131,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11700,7 +12168,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11733,7 +12205,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11766,7 +12242,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11799,7 +12279,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11832,7 +12316,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11865,7 +12353,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11898,7 +12390,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11931,7 +12427,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11964,7 +12464,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11997,7 +12501,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12030,7 +12538,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12063,7 +12575,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12096,7 +12612,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12129,7 +12649,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12162,7 +12686,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12195,7 +12723,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12228,7 +12760,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12261,7 +12797,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12294,7 +12834,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12327,7 +12871,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12360,7 +12908,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12393,7 +12945,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12426,7 +12982,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12459,7 +13019,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12492,7 +13056,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12525,7 +13093,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12558,7 +13130,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12591,7 +13167,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12624,7 +13204,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12657,7 +13241,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12690,7 +13278,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12723,7 +13315,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12756,7 +13352,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12789,7 +13389,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12822,7 +13426,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12855,7 +13463,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12888,7 +13500,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12921,7 +13537,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12954,7 +13574,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12987,7 +13611,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13020,7 +13648,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13053,7 +13685,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13086,7 +13722,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13119,7 +13759,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13152,7 +13796,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13185,7 +13833,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13218,7 +13870,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13251,7 +13907,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13284,7 +13944,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13317,7 +13981,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13350,7 +14018,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13383,7 +14055,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13416,7 +14092,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13449,7 +14129,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13482,7 +14166,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13515,7 +14203,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
